--- a/assets/ChartBuilder/public/Data/Backups/Rational/HBA/HBA.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Rational/HBA/HBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Rational\HBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA27AA-54DA-4582-997C-DA761722DE7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A61D19D-939B-4CD8-901C-DF1B2CC2A1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategic Allocation-DATA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
   <si>
     <t>MONTHLY RETURNS</t>
   </si>
@@ -270,9 +270,6 @@
     <t>12/31/2017</t>
   </si>
   <si>
-    <t>2018YTD</t>
-  </si>
-  <si>
     <t>10YRS</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Convertible Bond</t>
   </si>
   <si>
-    <t>Cash &amp; Equivalents</t>
-  </si>
-  <si>
     <t>Catalyst/CIFC Floating Rate Income Fund Class I</t>
   </si>
   <si>
@@ -379,6 +373,18 @@
   </si>
   <si>
     <t>AlphaCentric Income Opportunities Fund Class I</t>
+  </si>
+  <si>
+    <t>2021YTD</t>
+  </si>
+  <si>
+    <t>United States Treasury Bill 0% Due 12/30/2021</t>
+  </si>
+  <si>
+    <t>Government Bond</t>
+  </si>
+  <si>
+    <t>Cash and Equivalents</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1749,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2475,18 +2481,6 @@
     <xf numFmtId="10" fontId="20" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="6" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="6" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2515,22 +2509,6 @@
     <xf numFmtId="2" fontId="18" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="18" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,6 +2518,70 @@
     <xf numFmtId="10" fontId="18" fillId="15" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="14" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="7" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2552,9 +2594,6 @@
     <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2564,85 +2603,58 @@
     <xf numFmtId="10" fontId="8" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="3" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="25" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="73" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="8" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="25" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="25" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="25" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="3" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2652,17 +2664,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2684,44 +2686,32 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3112,8 +3102,8 @@
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>345878</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>170032</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>23344</xdr:rowOff>
     </xdr:to>
@@ -3156,8 +3146,8 @@
       <xdr:rowOff>87923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>59292</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>493046</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>81409</xdr:rowOff>
     </xdr:to>
@@ -3200,8 +3190,8 @@
       <xdr:rowOff>139211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>90560</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>524314</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>179851</xdr:rowOff>
     </xdr:to>
@@ -3248,8 +3238,8 @@
       <xdr:rowOff>139211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>90560</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>524314</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>179851</xdr:rowOff>
     </xdr:to>
@@ -3288,6 +3278,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>87922</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>380754</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>122031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4AA760-83AE-4483-943A-54F8B45AE646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="87922" y="6413015"/>
+          <a:ext cx="16371618" cy="6868756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3346,7 +3386,7 @@
         </row>
         <row r="6">
           <cell r="C6">
-            <v>44196</v>
+            <v>44286</v>
           </cell>
           <cell r="H6">
             <v>40117</v>
@@ -3385,10 +3425,10 @@
             <v>Total Months</v>
           </cell>
           <cell r="C9">
-            <v>137.03225806451613</v>
+            <v>140.03225806451613</v>
           </cell>
           <cell r="F9">
-            <v>137.03225806451613</v>
+            <v>140.03225806451613</v>
           </cell>
           <cell r="H9">
             <v>40209</v>
@@ -3405,10 +3445,10 @@
             <v>Inception*</v>
           </cell>
           <cell r="C10">
-            <v>5.4219424399123861E-2</v>
+            <v>5.9446212239952168E-2</v>
           </cell>
           <cell r="F10">
-            <v>0.14758066405408066</v>
+            <v>0.1500914372631299</v>
           </cell>
           <cell r="H10">
             <v>40237</v>
@@ -3425,10 +3465,10 @@
             <v>Annualized Return*</v>
           </cell>
           <cell r="C11">
-            <v>5.4219424399123861E-2</v>
+            <v>5.9446212239952168E-2</v>
           </cell>
           <cell r="F11">
-            <v>0.14758066405408066</v>
+            <v>0.1500914372631299</v>
           </cell>
           <cell r="H11">
             <v>40268</v>
@@ -3445,10 +3485,10 @@
             <v>Cumulative Return*</v>
           </cell>
           <cell r="C12">
-            <v>0.82750000000000001</v>
+            <v>0.96179999999999999</v>
           </cell>
           <cell r="F12">
-            <v>3.8159927697112006</v>
+            <v>4.1133742018867983</v>
           </cell>
           <cell r="H12">
             <v>40298</v>
@@ -3465,10 +3505,10 @@
             <v>Standard Deviation</v>
           </cell>
           <cell r="C13">
-            <v>0.10026704991771261</v>
+            <v>0.10026099044639643</v>
           </cell>
           <cell r="F13">
-            <v>0.14084801840508329</v>
+            <v>0.13986323752539209</v>
           </cell>
           <cell r="H13">
             <v>40329</v>
@@ -3485,10 +3525,10 @@
             <v>10 Years</v>
           </cell>
           <cell r="C14">
-            <v>4.4761282899100197E-2</v>
+            <v>4.870944723753512E-2</v>
           </cell>
           <cell r="F14">
-            <v>0.13872537186688616</v>
+            <v>0.13899951327703497</v>
           </cell>
           <cell r="H14">
             <v>40359</v>
@@ -3505,10 +3545,10 @@
             <v>5 Years</v>
           </cell>
           <cell r="C15">
-            <v>4.9159041761788425E-2</v>
+            <v>6.1733496489222661E-2</v>
           </cell>
           <cell r="F15">
-            <v>0.15198575477860876</v>
+            <v>0.16284006242182114</v>
           </cell>
           <cell r="H15">
             <v>40390</v>
@@ -3525,10 +3565,10 @@
             <v>3 Years</v>
           </cell>
           <cell r="C16">
-            <v>1.7443044958136644E-2</v>
+            <v>4.3732099780490641E-2</v>
           </cell>
           <cell r="F16">
-            <v>0.14164406765264559</v>
+            <v>0.16761292895416546</v>
           </cell>
           <cell r="H16">
             <v>40421</v>
@@ -3545,10 +3585,10 @@
             <v>2 Years</v>
           </cell>
           <cell r="C17">
-            <v>4.2261919815274496E-2</v>
+            <v>4.7237328019430702E-2</v>
           </cell>
           <cell r="F17">
-            <v>0.24732301107173327</v>
+            <v>0.20567189483517678</v>
           </cell>
           <cell r="H17">
             <v>40451</v>
@@ -3565,10 +3605,10 @@
             <v>1 Year</v>
           </cell>
           <cell r="C18">
-            <v>-3.4193002853820952E-2</v>
+            <v>0.34766778869272513</v>
           </cell>
           <cell r="F18">
-            <v>0.18395967492961637</v>
+            <v>0.56348393269738517</v>
           </cell>
           <cell r="H18">
             <v>40482</v>
@@ -3585,10 +3625,10 @@
             <v>YTD</v>
           </cell>
           <cell r="C19">
-            <v>-3.4193002853820952E-2</v>
+            <v>7.3488372093023252E-2</v>
           </cell>
           <cell r="F19">
-            <v>0.18395967492961637</v>
+            <v>6.174872895281168E-2</v>
           </cell>
           <cell r="H19">
             <v>40512</v>
@@ -3605,10 +3645,10 @@
             <v>6MOS</v>
           </cell>
           <cell r="C20">
-            <v>0.17948883438750485</v>
+            <v>0.23437991568615113</v>
           </cell>
           <cell r="F20">
-            <v>0.22158907510937514</v>
+            <v>0.19071343237910079</v>
           </cell>
           <cell r="H20">
             <v>40543</v>
@@ -3625,10 +3665,10 @@
             <v>3MOS</v>
           </cell>
           <cell r="C21">
-            <v>0.14987730447366765</v>
+            <v>7.3488372093023252E-2</v>
           </cell>
           <cell r="F21">
-            <v>0.12146442930380076</v>
+            <v>6.174872895281168E-2</v>
           </cell>
           <cell r="H21">
             <v>40574</v>
@@ -3645,10 +3685,10 @@
             <v>1MOS</v>
           </cell>
           <cell r="C22">
-            <v>4.7878440366972475E-2</v>
+            <v>4.3344147210551506E-2</v>
           </cell>
           <cell r="F22">
-            <v>3.8400000000000052E-2</v>
+            <v>4.3795555701961572E-2</v>
           </cell>
           <cell r="H22">
             <v>40602</v>
@@ -3665,10 +3705,10 @@
             <v>Excess Return</v>
           </cell>
           <cell r="C23">
-            <v>5.349642439912386E-2</v>
+            <v>5.9269212239952171E-2</v>
           </cell>
           <cell r="F23">
-            <v>0.14685766405408066</v>
+            <v>0.14991443726312989</v>
           </cell>
           <cell r="H23">
             <v>40633</v>
@@ -3705,10 +3745,10 @@
             <v>Monthly Geo. Average</v>
           </cell>
           <cell r="C25">
-            <v>4.4097453536615649E-3</v>
+            <v>4.8237913950868183E-3</v>
           </cell>
           <cell r="F25">
-            <v>1.153737767617713E-2</v>
+            <v>1.172162018594114E-2</v>
           </cell>
           <cell r="H25">
             <v>40694</v>
@@ -3745,7 +3785,7 @@
             <v>Active Return vs. Benchmark</v>
           </cell>
           <cell r="C27">
-            <v>-9.3361239654956796E-2</v>
+            <v>-9.0645225023177733E-2</v>
           </cell>
           <cell r="H27">
             <v>40755</v>
@@ -3762,10 +3802,10 @@
             <v>Sharpe Ratio</v>
           </cell>
           <cell r="C28">
-            <v>0.52632868367458774</v>
+            <v>0.58938388676247178</v>
           </cell>
           <cell r="F28">
-            <v>1.0375343984875443</v>
+            <v>1.0705989644773175</v>
           </cell>
           <cell r="H28">
             <v>40786</v>
@@ -3782,7 +3822,7 @@
             <v>R-Squared (vs. Bench)</v>
           </cell>
           <cell r="C29">
-            <v>0.6773164915173856</v>
+            <v>0.67736914827871597</v>
           </cell>
           <cell r="H29">
             <v>40816</v>
@@ -3799,7 +3839,7 @@
             <v>Beta vs. Bench</v>
           </cell>
           <cell r="C30">
-            <v>0.5815963364685538</v>
+            <v>0.58577102315961349</v>
           </cell>
           <cell r="H30">
             <v>40847</v>
@@ -3816,7 +3856,7 @@
             <v>Alpha vs. Bench</v>
           </cell>
           <cell r="C31">
-            <v>-3.191545499705907E-2</v>
+            <v>-2.8546321062069113E-2</v>
           </cell>
           <cell r="H31">
             <v>40877</v>
@@ -3833,7 +3873,7 @@
             <v>Correlation vs. Bench</v>
           </cell>
           <cell r="C32">
-            <v>0.82299240064376389</v>
+            <v>0.82302439105941216</v>
           </cell>
           <cell r="H32">
             <v>40908</v>
@@ -3850,10 +3890,10 @@
             <v>% Positive Months</v>
           </cell>
           <cell r="C33">
-            <v>0.67137476459510359</v>
+            <v>0.67127390002303622</v>
           </cell>
           <cell r="F33">
-            <v>0.70786252354048962</v>
+            <v>0.70697995853489981</v>
           </cell>
           <cell r="H33">
             <v>40939</v>
@@ -5040,13 +5080,46 @@
           </cell>
           <cell r="R140">
             <v>48159.927697112005</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="H141">
+            <v>44227</v>
+          </cell>
+          <cell r="O141">
+            <v>18153</v>
+          </cell>
+          <cell r="R141">
+            <v>47673.695121472068</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="H142">
+            <v>44255</v>
+          </cell>
+          <cell r="O142">
+            <v>18803</v>
+          </cell>
+          <cell r="R142">
+            <v>48988.273364011497</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="H143">
+            <v>44286</v>
+          </cell>
+          <cell r="O143">
+            <v>19618</v>
+          </cell>
+          <cell r="R143">
+            <v>51133.742018867983</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
           <cell r="D4">
-            <v>44196</v>
+            <v>44286</v>
           </cell>
         </row>
         <row r="13">
@@ -5055,9 +5128,6 @@
           </cell>
           <cell r="E13" t="str">
             <v>1 Year</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>5 Years</v>
           </cell>
           <cell r="H13" t="str">
             <v>10 Years</v>
@@ -5401,47 +5471,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL237"/>
+  <dimension ref="A1:AL240"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.44140625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" style="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="0.6640625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="53" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="74" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.6640625" style="56" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="0.6640625" style="56" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="0.6640625" style="56" customWidth="1"/>
-    <col min="30" max="30" width="6.109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="0.6640625" style="54" customWidth="1"/>
-    <col min="35" max="35" width="7.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.7109375" style="56" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="0.7109375" style="56" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" style="59" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="0.7109375" style="56" customWidth="1"/>
+    <col min="30" max="30" width="6.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="0.7109375" style="54" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -5450,47 +5520,47 @@
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="308" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="310"/>
+      <c r="J1" s="302" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="304"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="301" t="s">
+      <c r="O1" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="302"/>
-      <c r="Q1" s="302"/>
-      <c r="R1" s="303"/>
+      <c r="P1" s="314"/>
+      <c r="Q1" s="314"/>
+      <c r="R1" s="315"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="301" t="s">
+      <c r="T1" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="302"/>
-      <c r="V1" s="302"/>
-      <c r="W1" s="303"/>
+      <c r="U1" s="314"/>
+      <c r="V1" s="314"/>
+      <c r="W1" s="315"/>
       <c r="X1" s="5"/>
-      <c r="Y1" s="308" t="s">
+      <c r="Y1" s="302" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="309"/>
-      <c r="AA1" s="309"/>
-      <c r="AB1" s="310"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="304"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="308" t="s">
+      <c r="AD1" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="309"/>
-      <c r="AF1" s="309"/>
-      <c r="AG1" s="310"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="303"/>
+      <c r="AG1" s="304"/>
       <c r="AH1" s="6"/>
-      <c r="AI1" s="311" t="s">
+      <c r="AI1" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="312"/>
-      <c r="AK1" s="312"/>
-      <c r="AL1" s="313"/>
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="306"/>
+      <c r="AL1" s="307"/>
     </row>
     <row r="2" spans="1:38">
       <c r="C2" s="7" t="s">
@@ -5611,12 +5681,12 @@
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="304" t="s">
+      <c r="C3" s="308" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
       <c r="H3" s="12">
         <f>C5</f>
         <v>40024</v>
@@ -5665,12 +5735,12 @@
       <c r="B4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="304" t="s">
+      <c r="C4" s="308" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="304"/>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="308"/>
       <c r="G4"/>
       <c r="H4" s="23">
         <f>EOMONTH(H3,1)</f>
@@ -5755,12 +5825,12 @@
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="305">
+      <c r="C5" s="316">
         <v>40024</v>
       </c>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
+      <c r="D5" s="308"/>
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
       <c r="H5" s="23">
         <f>EOMONTH(H4,1)</f>
         <v>40086</v>
@@ -5857,12 +5927,12 @@
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="306">
-        <v>44196</v>
-      </c>
-      <c r="D6" s="307"/>
-      <c r="E6" s="307"/>
-      <c r="F6" s="307"/>
+      <c r="C6" s="317">
+        <v>44286</v>
+      </c>
+      <c r="D6" s="318"/>
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
       <c r="G6"/>
       <c r="H6" s="3">
         <f t="shared" ref="H6:H69" si="6">EOMONTH(H5,1)</f>
@@ -5943,18 +6013,18 @@
       </c>
     </row>
     <row r="7" spans="1:38" s="28" customFormat="1">
-      <c r="A7" s="300" t="s">
+      <c r="A7" s="312" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="304">
-        <v>0</v>
-      </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
+      <c r="C7" s="308">
+        <v>0</v>
+      </c>
+      <c r="D7" s="308"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
       <c r="G7"/>
       <c r="H7" s="23">
         <f t="shared" si="6"/>
@@ -6035,21 +6105,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="300"/>
+    <row r="8" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A8" s="312"/>
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="314">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="D8" s="315">
+      <c r="C8" s="309">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="D8" s="310">
         <v>1.395E-3</v>
       </c>
-      <c r="E8" s="315">
+      <c r="E8" s="310">
         <v>1.395E-3</v>
       </c>
-      <c r="F8" s="316">
+      <c r="F8" s="311">
         <v>1.395E-3</v>
       </c>
       <c r="G8"/>
@@ -6149,20 +6219,20 @@
         <v>12</v>
       </c>
       <c r="C9" s="81">
-        <f>(COUNTA(J4:J140))+(1/31)</f>
-        <v>137.03225806451613</v>
+        <f>(COUNTA(J4:J143))+(1/31)</f>
+        <v>140.03225806451613</v>
       </c>
       <c r="D9" s="205">
         <f>$C$9</f>
-        <v>137.03225806451613</v>
+        <v>140.03225806451613</v>
       </c>
       <c r="E9" s="205">
         <f t="shared" ref="E9:F9" si="8">$C$9</f>
-        <v>137.03225806451613</v>
+        <v>140.03225806451613</v>
       </c>
       <c r="F9" s="205">
         <f t="shared" si="8"/>
-        <v>137.03225806451613</v>
+        <v>140.03225806451613</v>
       </c>
       <c r="H9" s="23">
         <f t="shared" si="6"/>
@@ -6252,7 +6322,7 @@
       </c>
       <c r="C10" s="76">
         <f>C11</f>
-        <v>5.4219424399123861E-2</v>
+        <v>5.9446212239952168E-2</v>
       </c>
       <c r="D10" s="76">
         <f>D11</f>
@@ -6264,7 +6334,7 @@
       </c>
       <c r="F10" s="76">
         <f t="shared" si="9"/>
-        <v>0.14758066405408066</v>
+        <v>0.1500914372631299</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="23">
@@ -6353,7 +6423,7 @@
       </c>
       <c r="C11" s="199">
         <f>(1+C12)^(12/C9)-1</f>
-        <v>5.4219424399123861E-2</v>
+        <v>5.9446212239952168E-2</v>
       </c>
       <c r="D11" s="199">
         <f t="shared" ref="D11:F11" si="10">(1+D12)^(12/D9)-1</f>
@@ -6365,7 +6435,7 @@
       </c>
       <c r="F11" s="199">
         <f t="shared" si="10"/>
-        <v>0.14758066405408066</v>
+        <v>0.1500914372631299</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="163">
@@ -6479,7 +6549,7 @@
       </c>
       <c r="C12" s="199">
         <f>(C45-C35)/C35</f>
-        <v>0.82750000000000001</v>
+        <v>0.96179999999999999</v>
       </c>
       <c r="D12" s="199">
         <f>(D45-D35)/D35</f>
@@ -6491,7 +6561,7 @@
       </c>
       <c r="F12" s="199">
         <f>(F45-F35)/F35</f>
-        <v>3.8159927697112006</v>
+        <v>4.1133742018867983</v>
       </c>
       <c r="H12" s="23">
         <f t="shared" si="6"/>
@@ -6580,20 +6650,20 @@
         <v>16</v>
       </c>
       <c r="C13" s="200">
-        <f>STDEV(IF(J4:J140&lt;&gt;0,J4:J140))*SQRT(12)</f>
-        <v>0.10026704991771261</v>
+        <f>STDEV(IF(J4:J143&lt;&gt;0,J4:J143))*SQRT(12)</f>
+        <v>0.10026099044639643</v>
       </c>
       <c r="D13" s="200" t="e">
-        <f>STDEV(IF(K4:K140&lt;&gt;0,K4:K140))*SQRT(12)</f>
+        <f>STDEV(IF(K4:K143&lt;&gt;0,K4:K143))*SQRT(12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="200">
-        <f>STDEV(IF(L4:L140&lt;&gt;0,L4:L140))*SQRT(12)</f>
+        <f>STDEV(IF(L4:L143&lt;&gt;0,L4:L143))*SQRT(12)</f>
         <v>2.790916918788304E-2</v>
       </c>
       <c r="F13" s="200">
-        <f>STDEV(IF(M4:M140&lt;&gt;0,M4:M140))*SQRT(12)</f>
-        <v>0.14084801840508329</v>
+        <f>STDEV(IF(M4:M143&lt;&gt;0,M4:M143))*SQRT(12)</f>
+        <v>0.13986323752539209</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="23">
@@ -6680,11 +6750,11 @@
         <v>62</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="76">
         <f>POWER(C45/C36,365/($B$45-$B$36))-1</f>
-        <v>4.4761282899100197E-2</v>
+        <v>4.870944723753512E-2</v>
       </c>
       <c r="D14" s="76">
         <f t="shared" ref="D14:F14" si="12">POWER(D45/D36,365/($B$45-$B$36))-1</f>
@@ -6696,7 +6766,7 @@
       </c>
       <c r="F14" s="76">
         <f t="shared" si="12"/>
-        <v>0.13872537186688616</v>
+        <v>0.13899951327703497</v>
       </c>
       <c r="H14" s="23">
         <f t="shared" si="6"/>
@@ -6798,7 +6868,7 @@
       </c>
       <c r="C15" s="76">
         <f>POWER(C45/C37,365/($B$45-$B$37))-1</f>
-        <v>4.9159041761788425E-2</v>
+        <v>6.1733496489222661E-2</v>
       </c>
       <c r="D15" s="76">
         <f>POWER(D45/D37,365/($B$45-$B$37))-1</f>
@@ -6810,7 +6880,7 @@
       </c>
       <c r="F15" s="76">
         <f>POWER(F45/F37,365/($B$45-$B$37))-1</f>
-        <v>0.15198575477860876</v>
+        <v>0.16284006242182114</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="3">
@@ -6891,7 +6961,7 @@
         <v>-6.69255448194747E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="16" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="180" t="s">
         <v>62</v>
       </c>
@@ -6900,19 +6970,19 @@
       </c>
       <c r="C16" s="77">
         <f>POWER(C45/C38,365/($B$45-$B$38))-1</f>
-        <v>1.7443044958136644E-2</v>
+        <v>4.3732099780490641E-2</v>
       </c>
       <c r="D16" s="77">
         <f>POWER(D45/D38,365/($B$45-$B$38))-1</f>
         <v>-1</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="77" t="e">
         <f>POWER(E45/E38,365/($B$45-$B$38))-1</f>
-        <v>-1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F16" s="77">
         <f>POWER(F45/F38,365/($B$45-$B$38))-1</f>
-        <v>0.14164406765264559</v>
+        <v>0.16761292895416546</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="23">
@@ -7001,7 +7071,7 @@
       </c>
       <c r="C17" s="77">
         <f>POWER(C45/C39,365/($B$45-$B$39))-1</f>
-        <v>4.2261919815274496E-2</v>
+        <v>4.7237328019430702E-2</v>
       </c>
       <c r="D17" s="77">
         <f>POWER(D45/D39,365/($B$45-$B$39))-1</f>
@@ -7013,7 +7083,7 @@
       </c>
       <c r="F17" s="77">
         <f>POWER(F45/F39,365/($B$45-$B$39))-1</f>
-        <v>0.24732301107173327</v>
+        <v>0.20567189483517678</v>
       </c>
       <c r="G17"/>
       <c r="H17" s="163">
@@ -7115,7 +7185,7 @@
       </c>
       <c r="C18" s="77">
         <f>(C45-C40)/C40</f>
-        <v>-3.4193002853820952E-2</v>
+        <v>0.34766778869272513</v>
       </c>
       <c r="D18" s="77" t="e">
         <f>(D45-D40)/D40</f>
@@ -7127,7 +7197,7 @@
       </c>
       <c r="F18" s="77">
         <f>(F45-F40)/F40</f>
-        <v>0.18395967492961637</v>
+        <v>0.56348393269738517</v>
       </c>
       <c r="H18" s="23">
         <f t="shared" si="6"/>
@@ -7217,7 +7287,7 @@
       </c>
       <c r="C19" s="77">
         <f>(C45-C44)/C44</f>
-        <v>-3.4193002853820952E-2</v>
+        <v>7.3488372093023252E-2</v>
       </c>
       <c r="D19" s="77" t="e">
         <f>(D45-D44)/D44</f>
@@ -7229,7 +7299,7 @@
       </c>
       <c r="F19" s="77">
         <f>(F45-F44)/F44</f>
-        <v>0.18395967492961637</v>
+        <v>6.174872895281168E-2</v>
       </c>
       <c r="G19"/>
       <c r="H19" s="23">
@@ -7311,14 +7381,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="20" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="180"/>
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="77">
         <f>(C45-C41)/C41</f>
-        <v>0.17948883438750485</v>
+        <v>0.23437991568615113</v>
       </c>
       <c r="D20" s="77" t="e">
         <f>(D45-D41)/D41</f>
@@ -7330,7 +7400,7 @@
       </c>
       <c r="F20" s="77">
         <f>(F45-F41)/F41</f>
-        <v>0.22158907510937514</v>
+        <v>0.19071343237910079</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="137">
@@ -7430,7 +7500,7 @@
       </c>
       <c r="C21" s="77">
         <f>(C45-C42)/C42</f>
-        <v>0.14987730447366765</v>
+        <v>7.3488372093023252E-2</v>
       </c>
       <c r="D21" s="77" t="e">
         <f>(D45-D42)/D42</f>
@@ -7442,7 +7512,7 @@
       </c>
       <c r="F21" s="77">
         <f>(F45-F42)/F42</f>
-        <v>0.12146442930380076</v>
+        <v>6.174872895281168E-2</v>
       </c>
       <c r="H21" s="23">
         <f t="shared" si="6"/>
@@ -7530,7 +7600,7 @@
       </c>
       <c r="C22" s="77">
         <f>(C45-C43)/C43</f>
-        <v>4.7878440366972475E-2</v>
+        <v>4.3344147210551506E-2</v>
       </c>
       <c r="D22" s="77" t="e">
         <f>(D45-D43)/D43</f>
@@ -7542,7 +7612,7 @@
       </c>
       <c r="F22" s="77">
         <f>(F45-F43)/F43</f>
-        <v>3.8400000000000052E-2</v>
+        <v>4.3795555701961572E-2</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="23">
@@ -7631,19 +7701,19 @@
       </c>
       <c r="C23" s="76">
         <f>C11-$C$8</f>
-        <v>5.349642439912386E-2</v>
+        <v>5.9269212239952171E-2</v>
       </c>
       <c r="D23" s="76">
         <f>D11-$C$8</f>
-        <v>-1.000723</v>
+        <v>-1.0001770000000001</v>
       </c>
       <c r="E23" s="76">
         <f>E11-$C$8</f>
-        <v>-1.000723</v>
+        <v>-1.0001770000000001</v>
       </c>
       <c r="F23" s="76">
         <f>F11-$C$8</f>
-        <v>0.14685766405408066</v>
+        <v>0.14991443726312989</v>
       </c>
       <c r="H23" s="23">
         <f t="shared" si="6"/>
@@ -7856,7 +7926,7 @@
       </c>
       <c r="C25" s="77">
         <f>(1+C12)^(1/C9)-1</f>
-        <v>4.4097453536615649E-3</v>
+        <v>4.8237913950868183E-3</v>
       </c>
       <c r="D25" s="77">
         <f>(1+D12)^(1/D9)-1</f>
@@ -7868,7 +7938,7 @@
       </c>
       <c r="F25" s="77">
         <f>(1+F12)^(1/F9)-1</f>
-        <v>1.153737767617713E-2</v>
+        <v>1.172162018594114E-2</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="23">
@@ -7958,19 +8028,19 @@
         <v>27</v>
       </c>
       <c r="C26" s="77">
-        <f>MIN(AI9:AI140)</f>
+        <f>MIN(AI9:AI143)</f>
         <v>-0.23149614613029248</v>
       </c>
       <c r="D26" s="77">
-        <f>MIN(AJ9:AJ140)</f>
+        <f>MIN(AJ9:AJ143)</f>
         <v>-1</v>
       </c>
       <c r="E26" s="77">
-        <f>MIN(AK9:AK140)</f>
+        <f>MIN(AK9:AK143)</f>
         <v>-1</v>
       </c>
       <c r="F26" s="77">
-        <f>MIN(AL9:AL140)</f>
+        <f>MIN(AL9:AL143)</f>
         <v>-0.19598298792929666</v>
       </c>
       <c r="G26"/>
@@ -8072,15 +8142,15 @@
       </c>
       <c r="C27" s="76">
         <f>C11-$F$11</f>
-        <v>-9.3361239654956796E-2</v>
+        <v>-9.0645225023177733E-2</v>
       </c>
       <c r="D27" s="76">
         <f>D11-$F$11</f>
-        <v>-1.1475806640540807</v>
+        <v>-1.1500914372631299</v>
       </c>
       <c r="E27" s="76">
         <f>E11-$F$11</f>
-        <v>-1.1475806640540807</v>
+        <v>-1.1500914372631299</v>
       </c>
       <c r="F27" s="78"/>
       <c r="H27" s="23">
@@ -8162,7 +8232,7 @@
         <v>-4.7569703076284595E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="28" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A28" s="180" t="s">
         <v>62</v>
       </c>
@@ -8171,7 +8241,7 @@
       </c>
       <c r="C28" s="204">
         <f>(C23-$C$8)/C13</f>
-        <v>0.52632868367458774</v>
+        <v>0.58938388676247178</v>
       </c>
       <c r="D28" s="204" t="e">
         <f>(D23-$C$8)/D13</f>
@@ -8179,11 +8249,11 @@
       </c>
       <c r="E28" s="79">
         <f>(E23-$C$8)/E13</f>
-        <v>-35.882329325474323</v>
+        <v>-35.843202399386037</v>
       </c>
       <c r="F28" s="204">
         <f>(F23-$C$8)/F13</f>
-        <v>1.0375343984875443</v>
+        <v>1.0705989644773175</v>
       </c>
       <c r="G28"/>
       <c r="H28" s="23">
@@ -8271,15 +8341,15 @@
         <v>47</v>
       </c>
       <c r="C29" s="79">
-        <f>RSQ(J4:J140,$M$4:$M$140)</f>
-        <v>0.6773164915173856</v>
+        <f>RSQ(J4:J143,$M$4:$M$143)</f>
+        <v>0.67736914827871619</v>
       </c>
       <c r="D29" s="79" t="e">
-        <f>RSQ(K4:K140,$M$4:$M$140)</f>
+        <f>RSQ(K4:K143,$M$4:$M$143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="79">
-        <f>RSQ(L4:L140,$M$4:$M$140)</f>
+        <f>RSQ(L4:L143,$M$4:$M$143)</f>
         <v>4.0171386266231714E-2</v>
       </c>
       <c r="F29" s="80"/>
@@ -8382,16 +8452,16 @@
         <v>48</v>
       </c>
       <c r="C30" s="201">
-        <f>COVAR(J4:J140,$M$4:$M$140)/VAR($M$4:$M$140)</f>
-        <v>0.5815963364685538</v>
+        <f>COVAR(J4:J143,$M$4:$M$143)/VAR($M$4:$M$143)</f>
+        <v>0.58577102315961349</v>
       </c>
       <c r="D30" s="201" t="e">
-        <f>COVAR(K4:K140,$M$4:$M$140)/VAR($M$4:$M$140)</f>
+        <f>COVAR(K4:K143,$M$4:$M$143)/VAR($M$4:$M$143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="201">
-        <f>COVAR(L4:L140,$M$4:$M$140)/VAR($M$4:$M$140)</f>
-        <v>-3.3136129879300466E-2</v>
+        <f>COVAR(L4:L143,$M$4:$M$143)/VAR($M$4:$M$143)</f>
+        <v>-3.3604397431303876E-2</v>
       </c>
       <c r="F30" s="82"/>
       <c r="G30"/>
@@ -8483,7 +8553,7 @@
       </c>
       <c r="C31" s="200">
         <f>C23-($F$23*C30)</f>
-        <v>-3.191545499705907E-2</v>
+        <v>-2.8546321062069113E-2</v>
       </c>
       <c r="D31" s="200" t="e">
         <f>D23-($F$23*D30)</f>
@@ -8491,7 +8561,7 @@
       </c>
       <c r="E31" s="76">
         <f>E23-($F$23*E30)</f>
-        <v>-0.99585670537013338</v>
+        <v>-0.99513921566951957</v>
       </c>
       <c r="F31" s="75"/>
       <c r="G31"/>
@@ -8574,7 +8644,7 @@
         <v>-7.3158358849086946E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="32" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="180" t="s">
         <v>62</v>
       </c>
@@ -8582,15 +8652,15 @@
         <v>50</v>
       </c>
       <c r="C32" s="202">
-        <f>CORREL(J4:J140,$M$4:$M$140)</f>
-        <v>0.82299240064376389</v>
+        <f>CORREL(J4:J143,$M$4:$M$143)</f>
+        <v>0.82302439105941216</v>
       </c>
       <c r="D32" s="202" t="e">
-        <f>CORREL(K4:K140,$M$4:$M$140)</f>
+        <f>CORREL(K4:K143,$M$4:$M$143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="202">
-        <f>CORREL(L4:L140,$M$4:$M$140)</f>
+        <f>CORREL(L4:L143,$M$4:$M$143)</f>
         <v>-0.20042800768912439</v>
       </c>
       <c r="F32" s="80"/>
@@ -8694,20 +8764,20 @@
         <v>30</v>
       </c>
       <c r="C33" s="203">
-        <f>(COUNTIF(J4:J140,"&gt;0"))/C9</f>
-        <v>0.67137476459510359</v>
+        <f>(COUNTIF(J4:J143,"&gt;0"))/C9</f>
+        <v>0.67127390002303622</v>
       </c>
       <c r="D33" s="203">
-        <f>(COUNTIF(K4:K140,"&gt;0"))/D9</f>
-        <v>0.64218455743879477</v>
+        <f>(COUNTIF(K4:K143,"&gt;0"))/D9</f>
+        <v>0.62842662980879982</v>
       </c>
       <c r="E33" s="203">
-        <f>(COUNTIF(L4:L140,"&gt;0"))/E9</f>
-        <v>0.49623352165725049</v>
+        <f>(COUNTIF(L4:L143,"&gt;0"))/E9</f>
+        <v>0.48560239576134534</v>
       </c>
       <c r="F33" s="203">
-        <f>(COUNTIF(M4:M140,"&gt;0"))/F9</f>
-        <v>0.70786252354048962</v>
+        <f>(COUNTIF(M4:M143,"&gt;0"))/F9</f>
+        <v>0.70697995853489981</v>
       </c>
       <c r="H33" s="23">
         <f t="shared" si="6"/>
@@ -8895,7 +8965,7 @@
         <v>40024</v>
       </c>
       <c r="C35" s="39">
-        <f t="shared" ref="C35:C45" si="20">SUMIF($H$3:$H$140,B35,$O$3:$O$140)</f>
+        <f t="shared" ref="C35:C45" si="20">SUMIF($H$3:$H$143,B35,$O$3:$O$143)</f>
         <v>10000</v>
       </c>
       <c r="D35" s="39">
@@ -9016,27 +9086,27 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="38">
         <f>EOMONTH($C$6,-120)</f>
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="C36" s="39">
         <f t="shared" si="20"/>
-        <v>11790.45</v>
+        <v>12188.02</v>
       </c>
       <c r="D36" s="39">
         <f t="shared" si="21"/>
-        <v>12292.09</v>
+        <v>12754.09</v>
       </c>
       <c r="E36" s="39">
         <f t="shared" si="22"/>
-        <v>10899.683855370475</v>
+        <v>10945.710794080924</v>
       </c>
       <c r="F36" s="39">
         <f t="shared" si="23"/>
-        <v>13122.97</v>
+        <v>13899.77</v>
       </c>
       <c r="H36" s="23">
         <f t="shared" si="6"/>
@@ -9123,23 +9193,23 @@
       </c>
       <c r="B37" s="38">
         <f>EOMONTH($C$6,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="C37" s="39">
         <f t="shared" si="20"/>
-        <v>14372.64</v>
+        <v>14538.04</v>
       </c>
       <c r="D37" s="39">
-        <f t="shared" ref="D37:D45" si="25">SUMIF($H$3:$H$140,B37,$P$3:$P$140)</f>
-        <v>19018.05</v>
+        <f t="shared" ref="D37:D45" si="25">SUMIF($H$3:$H$143,B37,$P$3:$P$143)</f>
+        <v>19424.14</v>
       </c>
       <c r="E37" s="39">
-        <f t="shared" ref="E37:E45" si="26">SUMIF($H$3:$H$140,B37,$Q$3:$Q$140)</f>
-        <v>12787.917430461473</v>
+        <f t="shared" ref="E37:E45" si="26">SUMIF($H$3:$H$143,B37,$Q$3:$Q$143)</f>
+        <v>13175.593103265068</v>
       </c>
       <c r="F37" s="39">
-        <f t="shared" ref="F37:F45" si="27">SUMIF($H$3:$H$140,B37,$R$3:$R$140)</f>
-        <v>23719.94</v>
+        <f t="shared" ref="F37:F45" si="27">SUMIF($H$3:$H$143,B37,$R$3:$R$143)</f>
+        <v>24039.65</v>
       </c>
       <c r="G37"/>
       <c r="H37" s="23">
@@ -9227,23 +9297,23 @@
       </c>
       <c r="B38" s="38">
         <f>EOMONTH($C$6,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="C38" s="39">
         <f t="shared" si="20"/>
-        <v>17350.28</v>
+        <v>17251.89</v>
       </c>
       <c r="D38" s="39">
         <f t="shared" si="25"/>
-        <v>23553.99</v>
+        <v>23337.22</v>
       </c>
       <c r="E38" s="39">
         <f t="shared" si="26"/>
-        <v>13591.363141255555</v>
+        <v>0</v>
       </c>
       <c r="F38" s="39">
         <f t="shared" si="27"/>
-        <v>32354.6</v>
+        <v>32108.98</v>
       </c>
       <c r="H38" s="23">
         <f t="shared" si="6"/>
@@ -9342,15 +9412,15 @@
       </c>
       <c r="B39" s="38">
         <f>EOMONTH($C$6,-24)</f>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="C39" s="39">
         <f t="shared" si="20"/>
-        <v>16821.099999999999</v>
+        <v>17885.849999999999</v>
       </c>
       <c r="D39" s="39">
         <f t="shared" si="25"/>
-        <v>23017.79</v>
+        <v>25161.77</v>
       </c>
       <c r="E39" s="39">
         <f t="shared" si="26"/>
@@ -9358,7 +9428,7 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="27"/>
-        <v>30936.06</v>
+        <v>35158.21</v>
       </c>
       <c r="G39"/>
       <c r="H39" s="3">
@@ -9440,17 +9510,17 @@
         <v>-1.4010334917066068E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="40" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A40" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="38">
         <f>EOMONTH($C$6,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="C40" s="39">
         <f t="shared" si="20"/>
-        <v>18922</v>
+        <v>14557</v>
       </c>
       <c r="D40" s="39">
         <f t="shared" si="25"/>
@@ -9462,7 +9532,7 @@
       </c>
       <c r="F40" s="39">
         <f t="shared" si="27"/>
-        <v>40677</v>
+        <v>32705</v>
       </c>
       <c r="G40"/>
       <c r="H40" s="23">
@@ -9550,11 +9620,11 @@
       </c>
       <c r="B41" s="38">
         <f>EOMONTH($C$6,-6)</f>
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="C41" s="39">
         <f t="shared" si="20"/>
-        <v>15494</v>
+        <v>15893</v>
       </c>
       <c r="D41" s="39">
         <f t="shared" si="25"/>
@@ -9566,7 +9636,7 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="27"/>
-        <v>39424</v>
+        <v>42943.785320957024</v>
       </c>
       <c r="G41"/>
       <c r="H41" s="163">
@@ -9666,11 +9736,11 @@
       </c>
       <c r="B42" s="38">
         <f>EOMONTH($C$6,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="C42" s="39">
         <f t="shared" si="20"/>
-        <v>15893</v>
+        <v>18275</v>
       </c>
       <c r="D42" s="39">
         <f t="shared" si="25"/>
@@ -9682,7 +9752,7 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="27"/>
-        <v>42943.785320957024</v>
+        <v>48159.927697112005</v>
       </c>
       <c r="H42" s="23">
         <f t="shared" si="6"/>
@@ -9769,11 +9839,11 @@
       </c>
       <c r="B43" s="38">
         <f>EOMONTH($C$6,-1)</f>
-        <v>44165</v>
+        <v>44255</v>
       </c>
       <c r="C43" s="39">
         <f t="shared" si="20"/>
-        <v>17440</v>
+        <v>18803</v>
       </c>
       <c r="D43" s="39">
         <f t="shared" si="25"/>
@@ -9785,7 +9855,7 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="27"/>
-        <v>46378.975055000003</v>
+        <v>48988.273364011497</v>
       </c>
       <c r="G43"/>
       <c r="H43" s="23">
@@ -9867,16 +9937,16 @@
         <v>-1.2770260916823484E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="44" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A44" s="37" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B44" s="41">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="C44" s="39">
         <f t="shared" si="20"/>
-        <v>18922</v>
+        <v>18275</v>
       </c>
       <c r="D44" s="39">
         <f t="shared" si="25"/>
@@ -9888,7 +9958,7 @@
       </c>
       <c r="F44" s="39">
         <f t="shared" si="27"/>
-        <v>40677</v>
+        <v>48159.927697112005</v>
       </c>
       <c r="G44"/>
       <c r="H44" s="137">
@@ -9988,11 +10058,11 @@
       </c>
       <c r="B45" s="38">
         <f>C6</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="C45" s="39">
         <f t="shared" si="20"/>
-        <v>18275</v>
+        <v>19618</v>
       </c>
       <c r="D45" s="39">
         <f t="shared" si="25"/>
@@ -10004,7 +10074,7 @@
       </c>
       <c r="F45" s="39">
         <f t="shared" si="27"/>
-        <v>48159.927697112005</v>
+        <v>51133.742018867983</v>
       </c>
       <c r="H45" s="23">
         <f t="shared" si="6"/>
@@ -10629,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="52" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A52"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -10982,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="56" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A56"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -11705,7 +11775,7 @@
         <v>-1.3791007678805558E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="64" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A64"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -12058,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="68" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A68"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
@@ -12781,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="76" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A76"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -13134,7 +13204,7 @@
         <v>-3.3262380756040014E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="80" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A80"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
@@ -13857,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="88" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A88"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
@@ -14461,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="95" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A95"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
@@ -14729,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="15" thickBot="1">
+    <row r="98" spans="1:38" ht="15.75" thickBot="1">
       <c r="H98" s="163">
         <v>42916</v>
       </c>
@@ -14978,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:38" s="31" customFormat="1" ht="15" thickBot="1">
+    <row r="101" spans="1:38" s="31" customFormat="1" ht="15.75" thickBot="1">
       <c r="A101"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -15234,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:38" ht="15" thickBot="1">
+    <row r="104" spans="1:38" ht="15.75" thickBot="1">
       <c r="H104" s="239" t="s">
         <v>75</v>
       </c>
@@ -15339,7 +15409,7 @@
     </row>
     <row r="105" spans="1:38">
       <c r="H105" s="241">
-        <f t="shared" ref="H105:H140" si="63">EOMONTH(H104,1)</f>
+        <f t="shared" ref="H105:H143" si="63">EOMONTH(H104,1)</f>
         <v>43131</v>
       </c>
       <c r="I105" s="35"/>
@@ -15487,7 +15557,7 @@
         <v>-3.6857336050513563E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:38" ht="15" thickBot="1">
+    <row r="107" spans="1:38" ht="15.75" thickBot="1">
       <c r="H107" s="243">
         <f t="shared" si="63"/>
         <v>43190</v>
@@ -15724,7 +15794,7 @@
         <v>-3.5040458057890363E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:38" ht="15" thickBot="1">
+    <row r="110" spans="1:38" ht="15.75" thickBot="1">
       <c r="H110" s="243">
         <f t="shared" si="63"/>
         <v>43281</v>
@@ -15961,7 +16031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="8:38" ht="15" thickBot="1">
+    <row r="113" spans="8:38" ht="15.75" thickBot="1">
       <c r="H113" s="243">
         <f t="shared" si="63"/>
         <v>43373</v>
@@ -16198,7 +16268,7 @@
         <v>-4.9364552533892707E-2</v>
       </c>
     </row>
-    <row r="116" spans="8:38" ht="15" thickBot="1">
+    <row r="116" spans="8:38" ht="15.75" thickBot="1">
       <c r="H116" s="243">
         <f t="shared" si="63"/>
         <v>43465</v>
@@ -16447,7 +16517,7 @@
         <v>-3.5904186548132107E-2</v>
       </c>
     </row>
-    <row r="119" spans="8:38" ht="15" thickBot="1">
+    <row r="119" spans="8:38" ht="15.75" thickBot="1">
       <c r="H119" s="243">
         <f>EOMONTH(H118,1)</f>
         <v>43555</v>
@@ -16684,7 +16754,7 @@
         <v>-6.3548080668639331E-2</v>
       </c>
     </row>
-    <row r="122" spans="8:38" ht="15" thickBot="1">
+    <row r="122" spans="8:38" ht="15.75" thickBot="1">
       <c r="H122" s="243">
         <f>EOMONTH(H121,1)</f>
         <v>43646</v>
@@ -16921,7 +16991,7 @@
         <v>-1.5840197427846446E-2</v>
       </c>
     </row>
-    <row r="125" spans="8:38" ht="15" thickBot="1">
+    <row r="125" spans="8:38" ht="15.75" thickBot="1">
       <c r="H125" s="243">
         <f>EOMONTH(H124,1)</f>
         <v>43738</v>
@@ -17154,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="8:38" ht="15" thickBot="1">
+    <row r="128" spans="8:38" ht="15.75" thickBot="1">
       <c r="H128" s="243">
         <f>EOMONTH(H127,1)</f>
         <v>43830</v>
@@ -17385,7 +17455,7 @@
         <v>-8.2675713548196764E-2</v>
       </c>
     </row>
-    <row r="131" spans="8:38" ht="15" thickBot="1">
+    <row r="131" spans="8:38" ht="15.75" thickBot="1">
       <c r="H131" s="243">
         <f>EOMONTH(H130,1)</f>
         <v>43921</v>
@@ -17493,8 +17563,8 @@
       <c r="O132" s="270">
         <v>14873</v>
       </c>
-      <c r="P132" s="288"/>
-      <c r="Q132" s="289"/>
+      <c r="P132" s="284"/>
+      <c r="Q132" s="285"/>
       <c r="R132" s="272">
         <v>36897</v>
       </c>
@@ -17566,14 +17636,14 @@
       <c r="O133" s="270">
         <v>15250</v>
       </c>
-      <c r="P133" s="288"/>
-      <c r="Q133" s="289"/>
+      <c r="P133" s="284"/>
+      <c r="Q133" s="285"/>
       <c r="R133" s="272">
         <v>38655</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="18">
-        <f t="shared" ref="T133:T140" si="86">(O133-$O$3)/$O$3</f>
+        <f t="shared" ref="T133:T143" si="86">(O133-$O$3)/$O$3</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="U133" s="27">
@@ -17616,7 +17686,7 @@
         <v>-4.9708680581163803E-2</v>
       </c>
     </row>
-    <row r="134" spans="8:38" ht="15" thickBot="1">
+    <row r="134" spans="8:38" ht="15.75" thickBot="1">
       <c r="H134" s="243">
         <f t="shared" si="63"/>
         <v>44012</v>
@@ -17639,8 +17709,8 @@
       <c r="O134" s="271">
         <v>15494</v>
       </c>
-      <c r="P134" s="288"/>
-      <c r="Q134" s="289"/>
+      <c r="P134" s="284"/>
+      <c r="Q134" s="285"/>
       <c r="R134" s="273">
         <v>39424</v>
       </c>
@@ -17781,7 +17851,7 @@
       </c>
       <c r="I136" s="35"/>
       <c r="J136" s="20">
-        <f t="shared" ref="J136:K140" si="88">O136/O135-1</f>
+        <f t="shared" ref="J136:K143" si="88">O136/O135-1</f>
         <v>1.2615908660822406E-3</v>
       </c>
       <c r="K136" s="24" t="e">
@@ -17847,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="8:38" ht="15" thickBot="1">
+    <row r="137" spans="8:38" ht="15.75" thickBot="1">
       <c r="H137" s="242">
         <f t="shared" si="63"/>
         <v>44104</v>
@@ -17863,7 +17933,7 @@
       </c>
       <c r="L137" s="210"/>
       <c r="M137" s="16">
-        <f t="shared" ref="M137:M140" si="89">R137/R136-1</f>
+        <f t="shared" ref="M137:M143" si="89">R137/R136-1</f>
         <v>-3.7997194147475488E-2</v>
       </c>
       <c r="N137" s="2"/>
@@ -17881,7 +17951,7 @@
         <v>0.58930000000000005</v>
       </c>
       <c r="U137" s="27">
-        <f t="shared" ref="U137:V140" si="90">(P137-$P$3)/$P$3</f>
+        <f t="shared" ref="U137:V143" si="90">(P137-$P$3)/$P$3</f>
         <v>-1</v>
       </c>
       <c r="V137" s="27">
@@ -17889,7 +17959,7 @@
         <v>-1</v>
       </c>
       <c r="W137" s="19">
-        <f t="shared" ref="W137:W140" si="91">(R137-$R$3)/$R$3</f>
+        <f t="shared" ref="W137:W143" si="91">(R137-$R$3)/$R$3</f>
         <v>3.2943785320957022</v>
       </c>
       <c r="X137" s="2"/>
@@ -18078,22 +18148,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="8:38" ht="15" thickBot="1">
-      <c r="H140" s="292">
+    <row r="140" spans="8:38" ht="15.75" thickBot="1">
+      <c r="H140" s="242">
         <f t="shared" si="63"/>
         <v>44196</v>
       </c>
-      <c r="I140" s="293"/>
-      <c r="J140" s="294">
+      <c r="I140" s="35"/>
+      <c r="J140" s="20">
         <f t="shared" si="88"/>
         <v>4.787844036697253E-2</v>
       </c>
-      <c r="K140" s="295" t="e">
+      <c r="K140" s="24" t="e">
         <f t="shared" si="88"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L140" s="295"/>
-      <c r="M140" s="296">
+      <c r="L140" s="210"/>
+      <c r="M140" s="16">
         <f t="shared" si="89"/>
         <v>3.839999999999999E-2</v>
       </c>
@@ -18101,166 +18171,298 @@
       <c r="O140" s="271">
         <v>18275</v>
       </c>
-      <c r="P140" s="269"/>
-      <c r="Q140" s="142"/>
+      <c r="P140" s="268"/>
+      <c r="Q140" s="25"/>
       <c r="R140" s="273">
         <v>48159.927697112005</v>
       </c>
-      <c r="S140" s="148"/>
-      <c r="T140" s="169">
+      <c r="S140" s="2"/>
+      <c r="T140" s="18">
         <f t="shared" si="86"/>
         <v>0.82750000000000001</v>
       </c>
-      <c r="U140" s="170">
+      <c r="U140" s="27">
         <f t="shared" si="90"/>
         <v>-1</v>
       </c>
-      <c r="V140" s="170">
+      <c r="V140" s="27">
         <f t="shared" si="90"/>
         <v>-1</v>
       </c>
-      <c r="W140" s="171">
+      <c r="W140" s="19">
         <f t="shared" si="91"/>
         <v>3.8159927697112006</v>
       </c>
       <c r="X140" s="2"/>
       <c r="Y140" s="165">
-        <f>(O140-O137)/O137</f>
-        <v>0.14987730447366765</v>
+        <f>(O140-O134)/O134</f>
+        <v>0.17948883438750485</v>
       </c>
       <c r="Z140" s="166" t="e">
-        <f t="shared" ref="Z140:AB140" si="93">(P140-P137)/P137</f>
+        <f>(P140-P134)/P134</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA140" s="166" t="e">
-        <f t="shared" si="93"/>
+        <f>(Q140-Q134)/Q134</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB140" s="167">
-        <f t="shared" si="93"/>
-        <v>0.12146442930380076</v>
+        <f>(R140-R134)/R134</f>
+        <v>0.22158907510937514</v>
       </c>
       <c r="AC140" s="2"/>
-      <c r="AD140" s="165"/>
-      <c r="AE140" s="166"/>
-      <c r="AF140" s="166"/>
-      <c r="AG140" s="167"/>
+      <c r="AD140" s="20"/>
+      <c r="AE140" s="24"/>
+      <c r="AF140" s="24"/>
+      <c r="AG140" s="16"/>
       <c r="AH140" s="1"/>
-      <c r="AI140" s="139">
+      <c r="AI140" s="20">
         <f>(O140-(MAX($O$3:O140)))/(MAX($O$3:O140))</f>
         <v>-3.5212754724949849E-2</v>
       </c>
-      <c r="AJ140" s="140">
+      <c r="AJ140" s="24">
         <f>(P140-(MAX($P$3:P140)))/(MAX($P$3:P140))</f>
         <v>-1</v>
       </c>
-      <c r="AK140" s="140">
+      <c r="AK140" s="24">
         <f>(Q140-(MAX($Q$3:Q140)))/(MAX($Q$3:Q140))</f>
         <v>-1</v>
       </c>
-      <c r="AL140" s="141">
+      <c r="AL140" s="16">
         <f>(R140-(MAX($R$3:R140)))/(MAX($R$3:R140))</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="8:38">
-      <c r="H141" s="22"/>
-      <c r="I141" s="44"/>
-      <c r="J141" s="24"/>
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="24"/>
-      <c r="N141"/>
-      <c r="O141" s="244"/>
-      <c r="P141" s="245"/>
-      <c r="Q141" s="246"/>
-      <c r="R141" s="244"/>
-      <c r="S141" s="44"/>
-      <c r="T141" s="46"/>
-      <c r="U141" s="21"/>
-      <c r="V141" s="21"/>
-      <c r="W141" s="46"/>
-      <c r="X141" s="44"/>
-      <c r="Y141" s="47"/>
-      <c r="Z141" s="21"/>
-      <c r="AA141" s="21"/>
-      <c r="AB141" s="47"/>
-      <c r="AC141" s="44"/>
-      <c r="AD141" s="47"/>
-      <c r="AE141" s="21"/>
-      <c r="AF141" s="21"/>
-      <c r="AG141" s="47"/>
-      <c r="AH141" s="21"/>
-      <c r="AI141" s="1"/>
-      <c r="AJ141" s="21"/>
-      <c r="AK141" s="21"/>
-      <c r="AL141" s="1"/>
+      <c r="H141" s="242">
+        <f t="shared" si="63"/>
+        <v>44227</v>
+      </c>
+      <c r="I141" s="35"/>
+      <c r="J141" s="20">
+        <f t="shared" si="88"/>
+        <v>-6.6757865937072669E-3</v>
+      </c>
+      <c r="K141" s="24" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L141" s="210"/>
+      <c r="M141" s="16">
+        <f t="shared" si="89"/>
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="270">
+        <v>18153</v>
+      </c>
+      <c r="P141" s="268"/>
+      <c r="Q141" s="25"/>
+      <c r="R141" s="272">
+        <v>47673.695121472068</v>
+      </c>
+      <c r="S141" s="2"/>
+      <c r="T141" s="18">
+        <f t="shared" si="86"/>
+        <v>0.81530000000000002</v>
+      </c>
+      <c r="U141" s="27">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="V141" s="27">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="W141" s="19">
+        <f t="shared" si="91"/>
+        <v>3.7673695121472068</v>
+      </c>
+      <c r="X141" s="2"/>
+      <c r="Y141" s="20"/>
+      <c r="Z141" s="24"/>
+      <c r="AA141" s="24"/>
+      <c r="AB141" s="16"/>
+      <c r="AC141" s="2"/>
+      <c r="AD141" s="20"/>
+      <c r="AE141" s="24"/>
+      <c r="AF141" s="24"/>
+      <c r="AG141" s="16"/>
+      <c r="AH141" s="1"/>
+      <c r="AI141" s="20">
+        <f>(O141-(MAX($O$3:O141)))/(MAX($O$3:O141))</f>
+        <v>-4.1653468482736773E-2</v>
+      </c>
+      <c r="AJ141" s="24">
+        <f>(P141-(MAX($P$3:P141)))/(MAX($P$3:P141))</f>
+        <v>-1</v>
+      </c>
+      <c r="AK141" s="24">
+        <f>(Q141-(MAX($Q$3:Q141)))/(MAX($Q$3:Q141))</f>
+        <v>-1</v>
+      </c>
+      <c r="AL141" s="16">
+        <f>(R141-(MAX($R$3:R141)))/(MAX($R$3:R141))</f>
+        <v>-1.0096206512143385E-2</v>
+      </c>
     </row>
     <row r="142" spans="8:38">
-      <c r="H142" s="22"/>
-      <c r="I142" s="44"/>
-      <c r="J142" s="24"/>
-      <c r="K142" s="24"/>
-      <c r="L142" s="24"/>
-      <c r="M142" s="24"/>
-      <c r="N142"/>
-      <c r="O142" s="244"/>
-      <c r="P142" s="247"/>
-      <c r="Q142" s="248"/>
-      <c r="R142" s="247"/>
-      <c r="S142" s="44"/>
-      <c r="T142" s="46"/>
-      <c r="U142" s="21"/>
-      <c r="V142" s="21"/>
-      <c r="W142" s="46"/>
-      <c r="X142" s="44"/>
-      <c r="Y142" s="47"/>
-      <c r="Z142" s="21"/>
-      <c r="AA142" s="21"/>
-      <c r="AB142" s="47"/>
-      <c r="AC142" s="44"/>
-      <c r="AD142" s="47"/>
-      <c r="AE142" s="21"/>
-      <c r="AF142" s="21"/>
-      <c r="AG142" s="47"/>
-      <c r="AH142" s="21"/>
-      <c r="AI142" s="1"/>
-      <c r="AJ142" s="21"/>
-      <c r="AK142" s="21"/>
-      <c r="AL142" s="1"/>
+      <c r="H142" s="242">
+        <f t="shared" si="63"/>
+        <v>44255</v>
+      </c>
+      <c r="I142" s="35"/>
+      <c r="J142" s="20">
+        <f t="shared" si="88"/>
+        <v>3.580675370462183E-2</v>
+      </c>
+      <c r="K142" s="24" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L142" s="210"/>
+      <c r="M142" s="16">
+        <f t="shared" si="89"/>
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="270">
+        <v>18803</v>
+      </c>
+      <c r="P142" s="268"/>
+      <c r="Q142" s="25"/>
+      <c r="R142" s="272">
+        <v>48988.273364011497</v>
+      </c>
+      <c r="S142" s="2"/>
+      <c r="T142" s="18">
+        <f t="shared" si="86"/>
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="U142" s="27">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="V142" s="27">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="W142" s="19">
+        <f t="shared" si="91"/>
+        <v>3.8988273364011499</v>
+      </c>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="24"/>
+      <c r="AA142" s="24"/>
+      <c r="AB142" s="16"/>
+      <c r="AC142" s="2"/>
+      <c r="AD142" s="20"/>
+      <c r="AE142" s="24"/>
+      <c r="AF142" s="24"/>
+      <c r="AG142" s="16"/>
+      <c r="AH142" s="1"/>
+      <c r="AI142" s="20">
+        <f>(O142-(MAX($O$3:O142)))/(MAX($O$3:O142))</f>
+        <v>-7.3381902650195337E-3</v>
+      </c>
+      <c r="AJ142" s="24">
+        <f>(P142-(MAX($P$3:P142)))/(MAX($P$3:P142))</f>
+        <v>-1</v>
+      </c>
+      <c r="AK142" s="24">
+        <f>(Q142-(MAX($Q$3:Q142)))/(MAX($Q$3:Q142))</f>
+        <v>-1</v>
+      </c>
+      <c r="AL142" s="16">
+        <f>(R142-(MAX($R$3:R142)))/(MAX($R$3:R142))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="8:38">
-      <c r="H143" s="22"/>
-      <c r="I143" s="44"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="24"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="24"/>
-      <c r="N143"/>
-      <c r="O143" s="244"/>
-      <c r="P143" s="245"/>
-      <c r="Q143" s="246"/>
-      <c r="R143" s="244"/>
-      <c r="S143" s="44"/>
-      <c r="T143" s="46"/>
-      <c r="U143" s="21"/>
-      <c r="V143" s="21"/>
-      <c r="W143" s="46"/>
-      <c r="X143" s="44"/>
-      <c r="Y143" s="47"/>
-      <c r="Z143" s="21"/>
-      <c r="AA143" s="21"/>
-      <c r="AB143" s="47"/>
-      <c r="AC143" s="44"/>
-      <c r="AD143" s="47"/>
-      <c r="AE143" s="21"/>
-      <c r="AF143" s="21"/>
-      <c r="AG143" s="47"/>
-      <c r="AH143" s="21"/>
-      <c r="AI143" s="1"/>
-      <c r="AJ143" s="21"/>
-      <c r="AK143" s="21"/>
-      <c r="AL143" s="1"/>
+      <c r="H143" s="290">
+        <f t="shared" si="63"/>
+        <v>44286</v>
+      </c>
+      <c r="I143" s="291"/>
+      <c r="J143" s="165">
+        <f t="shared" si="88"/>
+        <v>4.3344147210551576E-2</v>
+      </c>
+      <c r="K143" s="166" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L143" s="292"/>
+      <c r="M143" s="167">
+        <f t="shared" si="89"/>
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="N143" s="162"/>
+      <c r="O143" s="293">
+        <v>19618</v>
+      </c>
+      <c r="P143" s="294"/>
+      <c r="Q143" s="168"/>
+      <c r="R143" s="295">
+        <v>51133.742018867983</v>
+      </c>
+      <c r="S143" s="162"/>
+      <c r="T143" s="169">
+        <f t="shared" si="86"/>
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="U143" s="170">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="V143" s="170">
+        <f t="shared" si="90"/>
+        <v>-1</v>
+      </c>
+      <c r="W143" s="171">
+        <f t="shared" si="91"/>
+        <v>4.1133742018867983</v>
+      </c>
+      <c r="X143" s="162"/>
+      <c r="Y143" s="165">
+        <f>(O143-O137)/O137</f>
+        <v>0.23437991568615113</v>
+      </c>
+      <c r="Z143" s="166" t="e">
+        <f>(P143-P137)/P137</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA143" s="166" t="e">
+        <f>(Q143-Q137)/Q137</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB143" s="167">
+        <f>(R143-R137)/R137</f>
+        <v>0.19071343237910079</v>
+      </c>
+      <c r="AC143" s="162"/>
+      <c r="AD143" s="165"/>
+      <c r="AE143" s="166"/>
+      <c r="AF143" s="166"/>
+      <c r="AG143" s="167"/>
+      <c r="AH143" s="161"/>
+      <c r="AI143" s="165">
+        <f>(O143-(MAX($O$3:O143)))/(MAX($O$3:O143))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ143" s="166">
+        <f>(P143-(MAX($P$3:P143)))/(MAX($P$3:P143))</f>
+        <v>-1</v>
+      </c>
+      <c r="AK143" s="166">
+        <f>(Q143-(MAX($Q$3:Q143)))/(MAX($Q$3:Q143))</f>
+        <v>-1</v>
+      </c>
+      <c r="AL143" s="167">
+        <f>(R143-(MAX($R$3:R143)))/(MAX($R$3:R143))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="8:38">
       <c r="H144" s="22"/>
@@ -18270,10 +18472,10 @@
       <c r="L144" s="24"/>
       <c r="M144" s="24"/>
       <c r="N144"/>
-      <c r="O144" s="45"/>
-      <c r="P144" s="73"/>
-      <c r="Q144" s="21"/>
-      <c r="R144" s="45"/>
+      <c r="O144" s="244"/>
+      <c r="P144" s="245"/>
+      <c r="Q144" s="246"/>
+      <c r="R144" s="244"/>
       <c r="S144" s="44"/>
       <c r="T144" s="46"/>
       <c r="U144" s="21"/>
@@ -18303,10 +18505,10 @@
       <c r="L145" s="24"/>
       <c r="M145" s="24"/>
       <c r="N145"/>
-      <c r="O145" s="45"/>
-      <c r="P145" s="73"/>
-      <c r="Q145" s="21"/>
-      <c r="R145" s="45"/>
+      <c r="O145" s="244"/>
+      <c r="P145" s="247"/>
+      <c r="Q145" s="248"/>
+      <c r="R145" s="247"/>
       <c r="S145" s="44"/>
       <c r="T145" s="46"/>
       <c r="U145" s="21"/>
@@ -18336,10 +18538,10 @@
       <c r="L146" s="24"/>
       <c r="M146" s="24"/>
       <c r="N146"/>
-      <c r="O146" s="45"/>
-      <c r="P146" s="73"/>
-      <c r="Q146" s="21"/>
-      <c r="R146" s="45"/>
+      <c r="O146" s="244"/>
+      <c r="P146" s="245"/>
+      <c r="Q146" s="246"/>
+      <c r="R146" s="244"/>
       <c r="S146" s="44"/>
       <c r="T146" s="46"/>
       <c r="U146" s="21"/>
@@ -21343,13 +21545,107 @@
       <c r="AK237" s="21"/>
       <c r="AL237" s="1"/>
     </row>
+    <row r="238" spans="1:38">
+      <c r="H238" s="22"/>
+      <c r="I238" s="44"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="24"/>
+      <c r="L238" s="24"/>
+      <c r="M238" s="24"/>
+      <c r="N238"/>
+      <c r="O238" s="45"/>
+      <c r="P238" s="73"/>
+      <c r="Q238" s="21"/>
+      <c r="R238" s="45"/>
+      <c r="S238" s="44"/>
+      <c r="T238" s="46"/>
+      <c r="U238" s="21"/>
+      <c r="V238" s="21"/>
+      <c r="W238" s="46"/>
+      <c r="X238" s="44"/>
+      <c r="Y238" s="47"/>
+      <c r="Z238" s="21"/>
+      <c r="AA238" s="21"/>
+      <c r="AB238" s="47"/>
+      <c r="AC238" s="44"/>
+      <c r="AD238" s="47"/>
+      <c r="AE238" s="21"/>
+      <c r="AF238" s="21"/>
+      <c r="AG238" s="47"/>
+      <c r="AH238" s="21"/>
+      <c r="AI238" s="1"/>
+      <c r="AJ238" s="21"/>
+      <c r="AK238" s="21"/>
+      <c r="AL238" s="1"/>
+    </row>
+    <row r="239" spans="1:38">
+      <c r="H239" s="22"/>
+      <c r="I239" s="44"/>
+      <c r="J239" s="24"/>
+      <c r="K239" s="24"/>
+      <c r="L239" s="24"/>
+      <c r="M239" s="24"/>
+      <c r="N239"/>
+      <c r="O239" s="45"/>
+      <c r="P239" s="73"/>
+      <c r="Q239" s="21"/>
+      <c r="R239" s="45"/>
+      <c r="S239" s="44"/>
+      <c r="T239" s="46"/>
+      <c r="U239" s="21"/>
+      <c r="V239" s="21"/>
+      <c r="W239" s="46"/>
+      <c r="X239" s="44"/>
+      <c r="Y239" s="47"/>
+      <c r="Z239" s="21"/>
+      <c r="AA239" s="21"/>
+      <c r="AB239" s="47"/>
+      <c r="AC239" s="44"/>
+      <c r="AD239" s="47"/>
+      <c r="AE239" s="21"/>
+      <c r="AF239" s="21"/>
+      <c r="AG239" s="47"/>
+      <c r="AH239" s="21"/>
+      <c r="AI239" s="1"/>
+      <c r="AJ239" s="21"/>
+      <c r="AK239" s="21"/>
+      <c r="AL239" s="1"/>
+    </row>
+    <row r="240" spans="1:38">
+      <c r="H240" s="22"/>
+      <c r="I240" s="44"/>
+      <c r="J240" s="24"/>
+      <c r="K240" s="24"/>
+      <c r="L240" s="24"/>
+      <c r="M240" s="24"/>
+      <c r="N240"/>
+      <c r="O240" s="45"/>
+      <c r="P240" s="73"/>
+      <c r="Q240" s="21"/>
+      <c r="R240" s="45"/>
+      <c r="S240" s="44"/>
+      <c r="T240" s="46"/>
+      <c r="U240" s="21"/>
+      <c r="V240" s="21"/>
+      <c r="W240" s="46"/>
+      <c r="X240" s="44"/>
+      <c r="Y240" s="47"/>
+      <c r="Z240" s="21"/>
+      <c r="AA240" s="21"/>
+      <c r="AB240" s="47"/>
+      <c r="AC240" s="44"/>
+      <c r="AD240" s="47"/>
+      <c r="AE240" s="21"/>
+      <c r="AF240" s="21"/>
+      <c r="AG240" s="47"/>
+      <c r="AH240" s="21"/>
+      <c r="AI240" s="1"/>
+      <c r="AJ240" s="21"/>
+      <c r="AK240" s="21"/>
+      <c r="AL240" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="T1:W1"/>
@@ -21358,204 +21654,209 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
-  <conditionalFormatting sqref="AI1:AJ1 AL1 AI141:AL1048576">
-    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
+  <conditionalFormatting sqref="AI1:AJ1 AL1 AI144:AL1048576">
+    <cfRule type="cellIs" dxfId="61" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81:M92 J47:J80 M47:M80 J135:M140">
-    <cfRule type="containsBlanks" dxfId="64" priority="39">
+  <conditionalFormatting sqref="J81:M92 J47:J80 M47:M80 J135:M143">
+    <cfRule type="containsBlanks" dxfId="60" priority="39">
       <formula>LEN(TRIM(J47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:M95 J96:K98 M96:M98">
-    <cfRule type="containsBlanks" dxfId="62" priority="36">
+    <cfRule type="containsBlanks" dxfId="58" priority="36">
       <formula>LEN(TRIM(J93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96:L98">
-    <cfRule type="containsBlanks" dxfId="61" priority="35">
+    <cfRule type="containsBlanks" dxfId="57" priority="35">
       <formula>LEN(TRIM(L96))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L99:L101">
-    <cfRule type="containsBlanks" dxfId="60" priority="34">
+    <cfRule type="containsBlanks" dxfId="56" priority="34">
       <formula>LEN(TRIM(L99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99:K104">
-    <cfRule type="containsBlanks" dxfId="59" priority="33">
+    <cfRule type="containsBlanks" dxfId="55" priority="33">
       <formula>LEN(TRIM(J99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99:M104">
-    <cfRule type="containsBlanks" dxfId="58" priority="32">
+    <cfRule type="containsBlanks" dxfId="54" priority="32">
       <formula>LEN(TRIM(M99))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102:L104">
-    <cfRule type="containsBlanks" dxfId="57" priority="31">
+    <cfRule type="containsBlanks" dxfId="53" priority="31">
       <formula>LEN(TRIM(L102))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M105:M107">
-    <cfRule type="containsBlanks" dxfId="56" priority="29">
+    <cfRule type="containsBlanks" dxfId="52" priority="29">
       <formula>LEN(TRIM(M105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L105:L107">
-    <cfRule type="containsBlanks" dxfId="55" priority="28">
+    <cfRule type="containsBlanks" dxfId="51" priority="28">
       <formula>LEN(TRIM(L105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105:K107">
-    <cfRule type="containsBlanks" dxfId="54" priority="30">
+    <cfRule type="containsBlanks" dxfId="50" priority="30">
       <formula>LEN(TRIM(J105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:M110">
-    <cfRule type="containsBlanks" dxfId="53" priority="26">
+    <cfRule type="containsBlanks" dxfId="49" priority="26">
       <formula>LEN(TRIM(M108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L108:L110">
-    <cfRule type="containsBlanks" dxfId="52" priority="25">
+    <cfRule type="containsBlanks" dxfId="48" priority="25">
       <formula>LEN(TRIM(L108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:K110">
-    <cfRule type="containsBlanks" dxfId="51" priority="27">
+    <cfRule type="containsBlanks" dxfId="47" priority="27">
       <formula>LEN(TRIM(J108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111:M113">
-    <cfRule type="containsBlanks" dxfId="50" priority="23">
+    <cfRule type="containsBlanks" dxfId="46" priority="23">
       <formula>LEN(TRIM(M111))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L111:L113">
-    <cfRule type="containsBlanks" dxfId="49" priority="22">
+    <cfRule type="containsBlanks" dxfId="45" priority="22">
       <formula>LEN(TRIM(L111))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:K113">
-    <cfRule type="containsBlanks" dxfId="48" priority="24">
+    <cfRule type="containsBlanks" dxfId="44" priority="24">
       <formula>LEN(TRIM(J111))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114:M116">
-    <cfRule type="containsBlanks" dxfId="47" priority="20">
+    <cfRule type="containsBlanks" dxfId="43" priority="20">
       <formula>LEN(TRIM(M114))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L114:L116">
-    <cfRule type="containsBlanks" dxfId="46" priority="19">
+    <cfRule type="containsBlanks" dxfId="42" priority="19">
       <formula>LEN(TRIM(L114))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J114:K116">
-    <cfRule type="containsBlanks" dxfId="45" priority="21">
+    <cfRule type="containsBlanks" dxfId="41" priority="21">
       <formula>LEN(TRIM(J114))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M117:M119">
-    <cfRule type="containsBlanks" dxfId="44" priority="17">
+    <cfRule type="containsBlanks" dxfId="40" priority="17">
       <formula>LEN(TRIM(M117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L117:L119">
-    <cfRule type="containsBlanks" dxfId="43" priority="16">
+    <cfRule type="containsBlanks" dxfId="39" priority="16">
       <formula>LEN(TRIM(L117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117:K119">
-    <cfRule type="containsBlanks" dxfId="42" priority="18">
+    <cfRule type="containsBlanks" dxfId="38" priority="18">
       <formula>LEN(TRIM(J117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M120:M122">
-    <cfRule type="containsBlanks" dxfId="41" priority="14">
+    <cfRule type="containsBlanks" dxfId="37" priority="14">
       <formula>LEN(TRIM(M120))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L120:L122">
-    <cfRule type="containsBlanks" dxfId="40" priority="13">
+    <cfRule type="containsBlanks" dxfId="36" priority="13">
       <formula>LEN(TRIM(L120))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J120:K122">
-    <cfRule type="containsBlanks" dxfId="39" priority="15">
+    <cfRule type="containsBlanks" dxfId="35" priority="15">
       <formula>LEN(TRIM(J120))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M123:M125">
-    <cfRule type="containsBlanks" dxfId="38" priority="12">
+    <cfRule type="containsBlanks" dxfId="34" priority="12">
       <formula>LEN(TRIM(M123))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L123:L125">
-    <cfRule type="containsBlanks" dxfId="37" priority="11">
+    <cfRule type="containsBlanks" dxfId="33" priority="11">
       <formula>LEN(TRIM(L123))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:K125">
-    <cfRule type="containsBlanks" dxfId="36" priority="10">
+    <cfRule type="containsBlanks" dxfId="32" priority="10">
       <formula>LEN(TRIM(J123))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M126:M128">
-    <cfRule type="containsBlanks" dxfId="35" priority="9">
+    <cfRule type="containsBlanks" dxfId="31" priority="9">
       <formula>LEN(TRIM(M126))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L126:L128">
-    <cfRule type="containsBlanks" dxfId="34" priority="8">
+    <cfRule type="containsBlanks" dxfId="30" priority="8">
       <formula>LEN(TRIM(L126))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:K128">
-    <cfRule type="containsBlanks" dxfId="33" priority="7">
+    <cfRule type="containsBlanks" dxfId="29" priority="7">
       <formula>LEN(TRIM(J126))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M129:M131">
-    <cfRule type="containsBlanks" dxfId="32" priority="6">
+    <cfRule type="containsBlanks" dxfId="28" priority="6">
       <formula>LEN(TRIM(M129))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L129:L131">
-    <cfRule type="containsBlanks" dxfId="31" priority="5">
+    <cfRule type="containsBlanks" dxfId="27" priority="5">
       <formula>LEN(TRIM(L129))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J129:K131">
-    <cfRule type="containsBlanks" dxfId="30" priority="4">
+    <cfRule type="containsBlanks" dxfId="26" priority="4">
       <formula>LEN(TRIM(J129))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M132:M134">
-    <cfRule type="containsBlanks" dxfId="29" priority="3">
+    <cfRule type="containsBlanks" dxfId="25" priority="3">
       <formula>LEN(TRIM(M132))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L132:L134">
-    <cfRule type="containsBlanks" dxfId="28" priority="2">
+    <cfRule type="containsBlanks" dxfId="24" priority="2">
       <formula>LEN(TRIM(L132))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132:K134">
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
+    <cfRule type="containsBlanks" dxfId="23" priority="1">
       <formula>LEN(TRIM(J132))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A33" xr:uid="{816263A7-8128-4CE7-A88D-4D216786718B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A33" xr:uid="{1E2EDF4B-52A1-41A5-B8AA-CE8871F1146C}">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
   </dataValidations>
@@ -21565,7 +21866,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{65F12D10-CDB8-4B00-BEBC-C08751335E6B}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{8AD01E42-3712-404A-A1A7-940240D10E38}">
             <xm:f>NOT(ISERROR(SEARCH($A$1,A9)))</xm:f>
             <xm:f>$A$1</xm:f>
             <x14:dxf>
@@ -21588,49 +21889,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="66" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="63" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="67" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.6640625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="33.44140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="63" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="67" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" style="66" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" style="65" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" style="64" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="10"/>
+    <col min="16" max="16" width="25.5703125" style="65" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="64" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="63" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1"/>
-    <row r="2" spans="2:18" ht="21.6" thickBot="1">
-      <c r="B2" s="326" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:18" ht="21.75" thickBot="1">
+      <c r="B2" s="328" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="328"/>
-      <c r="L2" s="326" t="s">
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="329"/>
+      <c r="J2" s="330"/>
+      <c r="L2" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="327"/>
-      <c r="N2" s="327"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="328"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1">
+      <c r="M2" s="329"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
+      <c r="Q2" s="330"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1">
       <c r="B3" s="83"/>
       <c r="C3" s="84"/>
       <c r="D3" s="85"/>
@@ -21646,12 +21947,12 @@
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1">
       <c r="B4" s="87"/>
-      <c r="C4" s="329" t="s">
+      <c r="C4" s="331" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="331">
+      <c r="D4" s="333">
         <f>'[1]Strategic Allocation-DATA'!C6</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="E4" s="89" t="str">
         <f>'[1]Strategic Allocation-DATA'!C2</f>
@@ -21661,49 +21962,49 @@
         <f>'[1]Strategic Allocation-DATA'!F2</f>
         <v>BENCH</v>
       </c>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
       <c r="J4" s="91"/>
       <c r="L4" s="87"/>
-      <c r="M4" s="323" t="s">
+      <c r="M4" s="325" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="324"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="325"/>
+      <c r="N4" s="326"/>
+      <c r="O4" s="326"/>
+      <c r="P4" s="327"/>
       <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="87"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="334"/>
       <c r="E5" s="72">
-        <f>SUMIF('[1]Strategic Allocation-DATA'!$H$3:$H$140,'[1]Strategic Allocation-FACT SHEET'!$D$4,'[1]Strategic Allocation-DATA'!O3:O140)</f>
-        <v>18275</v>
+        <f>SUMIF('[1]Strategic Allocation-DATA'!$H$3:$H$143,'[1]Strategic Allocation-FACT SHEET'!$D$4,'[1]Strategic Allocation-DATA'!O3:O143)</f>
+        <v>19618</v>
       </c>
       <c r="F5" s="93">
-        <f>SUMIF('[1]Strategic Allocation-DATA'!$H$3:$H$140,'[1]Strategic Allocation-FACT SHEET'!$D$4,'[1]Strategic Allocation-DATA'!R3:R140)</f>
-        <v>48159.927697112005</v>
+        <f>SUMIF('[1]Strategic Allocation-DATA'!$H$3:$H$143,'[1]Strategic Allocation-FACT SHEET'!$D$4,'[1]Strategic Allocation-DATA'!R3:R143)</f>
+        <v>51133.742018867983</v>
       </c>
       <c r="G5" s="250"/>
       <c r="H5" s="250"/>
       <c r="J5" s="91"/>
       <c r="L5" s="87"/>
       <c r="M5" s="260"/>
-      <c r="N5" s="284" t="s">
+      <c r="N5" s="280" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="280" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="284" t="s">
+      <c r="P5" s="261" t="s">
         <v>81</v>
-      </c>
-      <c r="P5" s="261" t="s">
-        <v>82</v>
       </c>
       <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1">
       <c r="B6" s="87"/>
-      <c r="C6" s="320" t="s">
+      <c r="C6" s="322" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="94" t="str">
@@ -21712,11 +22013,11 @@
       </c>
       <c r="E6" s="95">
         <f>D14/100</f>
-        <v>-3.4193002853820952E-2</v>
+        <v>7.3488372093023252E-2</v>
       </c>
       <c r="F6" s="96">
         <f>D15/100</f>
-        <v>0.18395967492961637</v>
+        <v>6.174872895281168E-2</v>
       </c>
       <c r="G6" s="251"/>
       <c r="H6" s="251"/>
@@ -21727,31 +22028,30 @@
         <v>104</v>
       </c>
       <c r="N6" s="207">
-        <v>0.17494973633217009</v>
+        <v>0.18258118654183597</v>
       </c>
       <c r="O6" s="207">
-        <f>N6</f>
-        <v>0.17494973633217009</v>
+        <v>0.18258118654183597</v>
       </c>
       <c r="P6" s="265" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="92"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1">
       <c r="B7" s="87"/>
-      <c r="C7" s="321"/>
+      <c r="C7" s="323"/>
       <c r="D7" s="99" t="str">
         <f>E13</f>
         <v>1 Year</v>
       </c>
       <c r="E7" s="100">
         <f>E14/100</f>
-        <v>-3.4193002853820952E-2</v>
+        <v>0.34766778869272513</v>
       </c>
       <c r="F7" s="101">
         <f>E15/100</f>
-        <v>0.18395967492961637</v>
+        <v>0.56348393269738517</v>
       </c>
       <c r="G7" s="251"/>
       <c r="H7" s="251"/>
@@ -21759,34 +22059,33 @@
       <c r="J7" s="91"/>
       <c r="L7" s="87"/>
       <c r="M7" s="235" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N7" s="207">
-        <v>0.17399036380414878</v>
+        <v>0.18098537906281315</v>
       </c>
       <c r="O7" s="207">
-        <f t="shared" ref="O7:O13" si="0">N7</f>
-        <v>0.17399036380414878</v>
+        <v>0.18098537906281315</v>
       </c>
       <c r="P7" s="265" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="92"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="87"/>
-      <c r="C8" s="321"/>
+      <c r="C8" s="323"/>
       <c r="D8" s="99" t="str">
         <f>F13</f>
         <v>3 Years</v>
       </c>
       <c r="E8" s="100">
         <f>F14/100</f>
-        <v>1.7500000000000002E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="F8" s="101">
         <f>F15/100</f>
-        <v>0.14180000000000001</v>
+        <v>0.1678</v>
       </c>
       <c r="G8" s="251"/>
       <c r="H8" s="251"/>
@@ -21794,34 +22093,33 @@
       <c r="J8" s="91"/>
       <c r="L8" s="87"/>
       <c r="M8" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="207">
+        <v>0.16191498496633458</v>
+      </c>
+      <c r="O8" s="207">
+        <v>0.16191498496633458</v>
+      </c>
+      <c r="P8" s="265" t="s">
         <v>106</v>
-      </c>
-      <c r="N8" s="207">
-        <v>0.16331538602712051</v>
-      </c>
-      <c r="O8" s="207">
-        <f t="shared" si="0"/>
-        <v>0.16331538602712051</v>
-      </c>
-      <c r="P8" s="265" t="s">
-        <v>107</v>
       </c>
       <c r="Q8" s="92"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="87"/>
-      <c r="C9" s="321"/>
+      <c r="C9" s="323"/>
       <c r="D9" s="99" t="str">
         <f>G13</f>
         <v>5 Years</v>
       </c>
       <c r="E9" s="100">
         <f>G14/100</f>
-        <v>4.9159041761788425E-2</v>
+        <v>6.1799999999999994E-2</v>
       </c>
       <c r="F9" s="101">
         <f>G15/100</f>
-        <v>0.1522</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="G9" s="251"/>
       <c r="H9" s="251"/>
@@ -21829,33 +22127,32 @@
       <c r="J9" s="91"/>
       <c r="L9" s="87"/>
       <c r="M9" s="133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N9" s="207">
-        <v>0.15874100921543507</v>
+        <v>0.10477829362963177</v>
       </c>
       <c r="O9" s="207">
-        <f t="shared" si="0"/>
-        <v>0.15874100921543507</v>
+        <v>0.10477829362963177</v>
       </c>
       <c r="P9" s="265" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="92"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="87"/>
-      <c r="C10" s="321"/>
+      <c r="C10" s="323"/>
       <c r="D10" s="254" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="255">
         <f>H14/100</f>
-        <v>4.4761282899100197E-2</v>
+        <v>4.870944723753512E-2</v>
       </c>
       <c r="F10" s="256">
         <f>H15/100</f>
-        <v>0.13880000000000001</v>
+        <v>0.1391</v>
       </c>
       <c r="G10" s="251"/>
       <c r="H10" s="251"/>
@@ -21863,55 +22160,53 @@
       <c r="J10" s="91"/>
       <c r="L10" s="87"/>
       <c r="M10" s="133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" s="207">
-        <v>9.8111606524015724E-2</v>
+        <v>0.1020806954618546</v>
       </c>
       <c r="O10" s="207">
-        <f t="shared" si="0"/>
-        <v>9.8111606524015724E-2</v>
+        <v>0.1020806954618546</v>
       </c>
       <c r="P10" s="265" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="92"/>
     </row>
-    <row r="11" spans="2:18" ht="15" thickBot="1">
+    <row r="11" spans="2:18" ht="15.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="322"/>
+      <c r="C11" s="324"/>
       <c r="D11" s="102" t="str">
         <f>I13</f>
         <v>Inception*</v>
       </c>
       <c r="E11" s="103">
         <f>I14/100</f>
-        <v>5.4199999999999998E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="F11" s="104">
         <f>I15/100</f>
-        <v>0.14749999999999999</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="G11" s="251"/>
       <c r="H11" s="251"/>
       <c r="J11" s="91"/>
       <c r="L11" s="87"/>
       <c r="M11" s="133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N11" s="207">
-        <v>9.5811631986570805E-2</v>
+        <v>8.6477649040602386E-2</v>
       </c>
       <c r="O11" s="207">
-        <f t="shared" si="0"/>
-        <v>9.5811631986570805E-2</v>
+        <v>8.6477649040602386E-2</v>
       </c>
       <c r="P11" s="265" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="92"/>
     </row>
-    <row r="12" spans="2:18" ht="15" thickBot="1">
+    <row r="12" spans="2:18" ht="15.75" thickBot="1">
       <c r="B12" s="87"/>
       <c r="C12" s="70"/>
       <c r="D12" s="69"/>
@@ -21921,17 +22216,16 @@
       <c r="J12" s="91"/>
       <c r="L12" s="87"/>
       <c r="M12" s="98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N12" s="208">
-        <v>8.0758539727613612E-2</v>
-      </c>
-      <c r="O12" s="207">
-        <f t="shared" si="0"/>
-        <v>8.0758539727613612E-2</v>
+        <v>5.5253028273609145E-2</v>
+      </c>
+      <c r="O12" s="208">
+        <v>5.5253028273609145E-2</v>
       </c>
       <c r="P12" s="265" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="92"/>
     </row>
@@ -21953,7 +22247,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="252" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="108" t="s">
         <v>13</v>
@@ -21961,17 +22255,16 @@
       <c r="J13" s="91"/>
       <c r="L13" s="87"/>
       <c r="M13" s="236" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N13" s="208">
-        <v>5.4321726382925366E-2</v>
-      </c>
-      <c r="O13" s="207">
-        <f t="shared" si="0"/>
-        <v>5.4321726382925366E-2</v>
+        <v>7.7635306989730479E-2</v>
+      </c>
+      <c r="O13" s="208">
+        <v>7.7635306989730479E-2</v>
       </c>
       <c r="P13" s="265" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="92"/>
     </row>
@@ -21982,39 +22275,38 @@
       </c>
       <c r="D14" s="110">
         <f>(SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!D$13,'[1]Strategic Allocation-DATA'!$C$9:$C$33))*100</f>
-        <v>-3.4193002853820951</v>
+        <v>7.3488372093023253</v>
       </c>
       <c r="E14" s="110">
         <f>(SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!E$13,'[1]Strategic Allocation-DATA'!$C$9:$C$33))*100</f>
-        <v>-3.4193002853820951</v>
-      </c>
-      <c r="F14" s="297">
-        <v>1.75</v>
+        <v>34.766778869272514</v>
+      </c>
+      <c r="F14" s="287">
+        <v>4.38</v>
       </c>
       <c r="G14" s="110">
-        <f>(SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!G$13,'[1]Strategic Allocation-DATA'!$C$9:$C$33))*100</f>
-        <v>4.9159041761788425</v>
+        <v>6.18</v>
       </c>
       <c r="H14" s="110">
         <f>(SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!H$13,'[1]Strategic Allocation-DATA'!$C$9:$C$33))*100</f>
-        <v>4.4761282899100197</v>
-      </c>
-      <c r="I14" s="290">
-        <v>5.42</v>
+        <v>4.870944723753512</v>
+      </c>
+      <c r="I14" s="286">
+        <v>5.94</v>
       </c>
       <c r="J14" s="91"/>
       <c r="L14" s="87"/>
       <c r="M14" s="236" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N14" s="208">
-        <v>0</v>
+        <v>4.8293476033587968E-2</v>
       </c>
       <c r="O14" s="208">
-        <v>0.9859</v>
+        <v>4.8293476033587968E-2</v>
       </c>
       <c r="P14" s="265" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="92"/>
     </row>
@@ -22026,54 +22318,62 @@
       </c>
       <c r="D15" s="112">
         <f>(SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!D$13,'[1]Strategic Allocation-DATA'!$F$9:$F$33))*100</f>
-        <v>18.395967492961638</v>
+        <v>6.174872895281168</v>
       </c>
       <c r="E15" s="112">
         <f>(SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!E$13,'[1]Strategic Allocation-DATA'!$F$9:$F$33))*100</f>
-        <v>18.395967492961638</v>
+        <v>56.348393269738516</v>
       </c>
       <c r="F15" s="253">
-        <v>14.18</v>
+        <v>16.78</v>
       </c>
       <c r="G15" s="253">
-        <v>15.22</v>
+        <v>16.29</v>
       </c>
       <c r="H15" s="253">
-        <v>13.88</v>
-      </c>
-      <c r="I15" s="298">
-        <v>14.75</v>
+        <v>13.91</v>
+      </c>
+      <c r="I15" s="288">
+        <v>15.01</v>
       </c>
       <c r="J15" s="91"/>
       <c r="L15" s="87"/>
-      <c r="M15" s="236"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="265"/>
+      <c r="M15" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" s="208">
+        <v>0</v>
+      </c>
+      <c r="O15" s="296">
+        <v>1.0062982007533738</v>
+      </c>
+      <c r="P15" s="265" t="s">
+        <v>102</v>
+      </c>
       <c r="Q15" s="92"/>
     </row>
-    <row r="16" spans="2:18" ht="14.4" customHeight="1">
+    <row r="16" spans="2:18" ht="14.45" customHeight="1">
       <c r="B16" s="87"/>
       <c r="C16" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="285">
-        <v>-8.01</v>
-      </c>
-      <c r="E16" s="285">
-        <v>-8.01</v>
-      </c>
-      <c r="F16" s="285">
-        <v>0.11</v>
-      </c>
-      <c r="G16" s="285">
-        <v>3.9</v>
-      </c>
-      <c r="H16" s="285">
-        <v>3.97</v>
+      <c r="D16" s="281">
+        <v>2.23</v>
+      </c>
+      <c r="E16" s="281">
+        <v>28.31</v>
+      </c>
+      <c r="F16" s="281">
+        <v>2.69</v>
+      </c>
+      <c r="G16" s="281">
+        <v>5.15</v>
+      </c>
+      <c r="H16" s="281">
+        <v>4.3600000000000003</v>
       </c>
       <c r="I16" s="195">
-        <v>4.97</v>
+        <v>5.5</v>
       </c>
       <c r="J16" s="91"/>
       <c r="L16" s="87"/>
@@ -22083,20 +22383,20 @@
       <c r="P16" s="265"/>
       <c r="Q16" s="92"/>
     </row>
-    <row r="17" spans="1:18" s="63" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:18" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="66"/>
       <c r="B17" s="87"/>
       <c r="C17" s="196" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="197">
-        <v>-3.19</v>
+        <v>7.56</v>
       </c>
       <c r="E17" s="197">
-        <v>-3.19</v>
+        <v>35.11</v>
       </c>
       <c r="F17" s="197">
-        <v>1.96</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G17" s="197" t="s">
         <v>69</v>
@@ -22105,50 +22405,56 @@
         <v>69</v>
       </c>
       <c r="I17" s="198">
-        <v>4.93</v>
+        <v>6.27</v>
       </c>
       <c r="J17" s="91"/>
       <c r="K17" s="66"/>
       <c r="L17" s="87"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="265"/>
+      <c r="M17" s="249"/>
+      <c r="N17" s="234"/>
+      <c r="O17" s="234"/>
+      <c r="P17" s="266"/>
       <c r="Q17" s="92"/>
     </row>
-    <row r="18" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
+    <row r="18" spans="1:18" ht="14.45" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="87"/>
       <c r="C18" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="286">
-        <v>-4.13</v>
-      </c>
-      <c r="E18" s="286">
-        <v>-4.13</v>
-      </c>
-      <c r="F18" s="286">
-        <v>0.96</v>
-      </c>
-      <c r="G18" s="286" t="s">
+      <c r="D18" s="282">
+        <v>7.17</v>
+      </c>
+      <c r="E18" s="282">
+        <v>33.72</v>
+      </c>
+      <c r="F18" s="282">
+        <v>3.62</v>
+      </c>
+      <c r="G18" s="282" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="286" t="s">
+      <c r="H18" s="282" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="194">
-        <v>3.91</v>
+        <v>5.2</v>
       </c>
       <c r="J18" s="91"/>
       <c r="L18" s="87"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="266"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="267">
+        <f>SUM(N6:N17)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="267">
+        <f>SUM(O6:O17)</f>
+        <v>2.0062982007533741</v>
+      </c>
+      <c r="P18" s="66"/>
       <c r="Q18" s="92"/>
     </row>
-    <row r="19" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
+    <row r="19" spans="1:18" ht="14.45" customHeight="1" thickBot="1">
       <c r="B19" s="87"/>
       <c r="C19" s="274" t="str">
         <f>C15</f>
@@ -22156,15 +22462,15 @@
       </c>
       <c r="D19" s="275">
         <f>D15</f>
-        <v>18.395967492961638</v>
+        <v>6.174872895281168</v>
       </c>
       <c r="E19" s="275">
         <f>E15</f>
-        <v>18.395967492961638</v>
+        <v>56.348393269738516</v>
       </c>
       <c r="F19" s="275">
         <f>F15</f>
-        <v>14.18</v>
+        <v>16.78</v>
       </c>
       <c r="G19" s="275" t="s">
         <v>69</v>
@@ -22172,39 +22478,38 @@
       <c r="H19" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="291">
-        <f>I15</f>
-        <v>14.75</v>
+      <c r="I19" s="297">
+        <v>16.38</v>
       </c>
       <c r="J19" s="91"/>
       <c r="L19" s="87"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="267">
-        <f>SUM(N6:N18)</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="267">
-        <f>SUM(O6:O18)</f>
-        <v>1.9859</v>
-      </c>
-      <c r="P19" s="66"/>
+      <c r="N19" s="135"/>
       <c r="Q19" s="116"/>
     </row>
-    <row r="20" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
+    <row r="20" spans="1:18" ht="14.45" customHeight="1" thickBot="1">
       <c r="B20" s="87"/>
       <c r="C20" s="68"/>
       <c r="J20" s="91"/>
       <c r="L20" s="87"/>
-      <c r="N20" s="135"/>
+      <c r="M20" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="283"/>
       <c r="Q20" s="92"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4" customHeight="1">
+    <row r="21" spans="1:18" ht="14.45" customHeight="1">
       <c r="B21" s="87"/>
       <c r="C21" s="113" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="115" t="str">
         <f>F4</f>
@@ -22212,125 +22517,125 @@
       </c>
       <c r="F21" s="90"/>
       <c r="G21" s="258" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="258"/>
       <c r="I21" s="259"/>
       <c r="J21" s="91"/>
       <c r="L21" s="87"/>
-      <c r="M21" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="O21" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="P21" s="287"/>
+      <c r="M21" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="187">
+        <v>2.18E-2</v>
+      </c>
+      <c r="O21" s="189">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="P21" s="262"/>
       <c r="Q21" s="92"/>
       <c r="R21" s="65"/>
     </row>
-    <row r="22" spans="1:18" ht="14.4" customHeight="1">
-      <c r="B22" s="319"/>
+    <row r="22" spans="1:18" ht="14.45" customHeight="1">
+      <c r="B22" s="321"/>
       <c r="C22" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="299">
-        <v>-1.9599999999999999E-2</v>
-      </c>
-      <c r="E22" s="299">
-        <v>0.22819999999999999</v>
+      <c r="D22" s="289">
+        <v>5.45E-2</v>
+      </c>
+      <c r="E22" s="289">
+        <v>0.3039</v>
       </c>
       <c r="F22" s="206"/>
       <c r="G22" s="257" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="118"/>
       <c r="L22" s="87"/>
       <c r="M22" s="188" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="N22" s="187">
-        <v>2.18E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="O22" s="189">
-        <v>2.8299999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="P22" s="262"/>
       <c r="Q22" s="92"/>
       <c r="R22" s="66"/>
     </row>
-    <row r="23" spans="1:18" ht="14.4" customHeight="1">
-      <c r="B23" s="319"/>
+    <row r="23" spans="1:18" ht="14.45" customHeight="1">
+      <c r="B23" s="321"/>
       <c r="C23" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="277">
+      <c r="D23" s="298">
         <f>I14/100</f>
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="E23" s="277">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="E23" s="298">
         <f>I15/100</f>
-        <v>0.14749999999999999</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="F23" s="129"/>
       <c r="J23" s="91"/>
       <c r="L23" s="87"/>
       <c r="M23" s="188" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N23" s="187">
-        <v>2.93E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="O23" s="189">
-        <v>3.5000000000000003E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="P23" s="262"/>
       <c r="Q23" s="92"/>
       <c r="R23" s="65"/>
     </row>
-    <row r="24" spans="1:18" ht="14.4" customHeight="1">
-      <c r="B24" s="319"/>
+    <row r="24" spans="1:18" ht="14.45" customHeight="1">
+      <c r="B24" s="321"/>
       <c r="C24" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="277">
+      <c r="D24" s="298">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C24,'[1]Strategic Allocation-DATA'!$C$9:$C$33)</f>
-        <v>0.10026704991771261</v>
-      </c>
-      <c r="E24" s="277">
+        <v>0.10026099044639643</v>
+      </c>
+      <c r="E24" s="298">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C24,'[1]Strategic Allocation-DATA'!$F$9:$F$33)</f>
-        <v>0.14084801840508329</v>
+        <v>0.13986323752539209</v>
       </c>
       <c r="F24" s="129"/>
       <c r="J24" s="91"/>
       <c r="L24" s="87"/>
       <c r="M24" s="188" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="187">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="O24" s="189">
-        <v>2.46E-2</v>
-      </c>
-      <c r="P24" s="262"/>
+        <v>68</v>
+      </c>
+      <c r="N24" s="190">
+        <v>40024</v>
+      </c>
+      <c r="O24" s="191">
+        <v>42521</v>
+      </c>
+      <c r="P24" s="263"/>
       <c r="Q24" s="92"/>
       <c r="R24" s="65"/>
     </row>
-    <row r="25" spans="1:18" s="66" customFormat="1" ht="14.4" customHeight="1">
-      <c r="B25" s="319"/>
+    <row r="25" spans="1:18" s="66" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B25" s="321"/>
       <c r="C25" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="278">
+      <c r="D25" s="299">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C25,'[1]Strategic Allocation-DATA'!$C$9:$C$33)</f>
-        <v>0.52632868367458774</v>
-      </c>
-      <c r="E25" s="278">
+        <v>0.58938388676247178</v>
+      </c>
+      <c r="E25" s="299">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C25,'[1]Strategic Allocation-DATA'!$F$9:$F$33)</f>
-        <v>1.0375343984875443</v>
+        <v>1.0705989644773175</v>
       </c>
       <c r="F25" s="130"/>
       <c r="G25" s="67"/>
@@ -22338,100 +22643,90 @@
       <c r="I25" s="67"/>
       <c r="J25" s="91"/>
       <c r="L25" s="87"/>
-      <c r="M25" s="188" t="s">
-        <v>68</v>
-      </c>
-      <c r="N25" s="190">
-        <v>40024</v>
-      </c>
-      <c r="O25" s="191">
-        <v>42521</v>
-      </c>
-      <c r="P25" s="263"/>
+      <c r="M25" s="192"/>
+      <c r="N25" s="335"/>
+      <c r="O25" s="336"/>
+      <c r="P25" s="264"/>
       <c r="Q25" s="92"/>
       <c r="R25" s="65"/>
     </row>
-    <row r="26" spans="1:18" ht="14.4" customHeight="1">
-      <c r="B26" s="319"/>
+    <row r="26" spans="1:18" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B26" s="321"/>
       <c r="C26" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="277">
+      <c r="D26" s="298">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C26,'[1]Strategic Allocation-DATA'!$C$9:$C$33)</f>
-        <v>-3.191545499705907E-2</v>
-      </c>
-      <c r="E26" s="277" t="s">
+        <v>-2.8546321062069113E-2</v>
+      </c>
+      <c r="E26" s="298" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="129"/>
       <c r="J26" s="91"/>
       <c r="L26" s="87"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="317"/>
-      <c r="O26" s="318"/>
-      <c r="P26" s="264"/>
+      <c r="M26" s="193" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="319" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="320"/>
+      <c r="P26" s="262"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="65"/>
     </row>
-    <row r="27" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B27" s="319"/>
+    <row r="27" spans="1:18" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B27" s="321"/>
       <c r="C27" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="278">
+      <c r="D27" s="299">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C27,'[1]Strategic Allocation-DATA'!$C$9:$C$33)</f>
-        <v>0.5815963364685538</v>
-      </c>
-      <c r="E27" s="278" t="s">
+        <v>0.58577102315961349</v>
+      </c>
+      <c r="E27" s="299" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="130"/>
       <c r="J27" s="91"/>
       <c r="L27" s="126"/>
-      <c r="M27" s="193" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="333" t="s">
-        <v>60</v>
-      </c>
-      <c r="O27" s="334"/>
-      <c r="P27" s="262"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
       <c r="Q27" s="128"/>
       <c r="R27" s="65"/>
     </row>
-    <row r="28" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B28" s="319"/>
+    <row r="28" spans="1:18" ht="14.45" customHeight="1">
+      <c r="B28" s="321"/>
       <c r="C28" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="278">
+      <c r="D28" s="299">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C28,'[1]Strategic Allocation-DATA'!$C$9:$C$33)</f>
-        <v>0.82299240064376389</v>
-      </c>
-      <c r="E28" s="278" t="s">
+        <v>0.82302439105941216</v>
+      </c>
+      <c r="E28" s="299" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="130"/>
       <c r="J28" s="91"/>
       <c r="K28" s="71"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
       <c r="R28" s="65"/>
     </row>
-    <row r="29" spans="1:18" ht="14.4" customHeight="1">
-      <c r="B29" s="319"/>
+    <row r="29" spans="1:18" ht="14.45" customHeight="1">
+      <c r="B29" s="321"/>
       <c r="C29" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="279">
+      <c r="D29" s="300">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C29,'[1]Strategic Allocation-DATA'!$C$9:$C$33)</f>
-        <v>0.67137476459510359</v>
-      </c>
-      <c r="E29" s="279">
+        <v>0.67127390002303622</v>
+      </c>
+      <c r="E29" s="300">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C29,'[1]Strategic Allocation-DATA'!$F$9:$F$33)</f>
-        <v>0.70786252354048962</v>
+        <v>0.70697995853489981</v>
       </c>
       <c r="F29" s="131"/>
       <c r="G29" s="66"/>
@@ -22439,16 +22734,16 @@
       <c r="J29" s="91"/>
       <c r="R29" s="67"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1">
-      <c r="B30" s="319"/>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B30" s="321"/>
       <c r="C30" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="280">
+      <c r="D30" s="301">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C30,'[1]Strategic Allocation-DATA'!$C$9:$C$33)</f>
         <v>-0.23149614613029248</v>
       </c>
-      <c r="E30" s="280">
+      <c r="E30" s="301">
         <f>SUMIF('[1]Strategic Allocation-DATA'!$B$9:$B$33,'[1]Strategic Allocation-FACT SHEET'!C30,'[1]Strategic Allocation-DATA'!$F$9:$F$33)</f>
         <v>-0.19598298792929666</v>
       </c>
@@ -22456,7 +22751,7 @@
       <c r="J30" s="91"/>
       <c r="R30" s="67"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1">
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
       <c r="D31" s="123"/>
@@ -22543,67 +22838,108 @@
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N25:O25"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:P18">
-    <cfRule type="containsBlanks" dxfId="12" priority="13">
+  <conditionalFormatting sqref="M6:P8 M14:P17 M9:O13">
+    <cfRule type="containsBlanks" dxfId="21" priority="22">
       <formula>LEN(TRIM(M6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F11 D22:F30 H6:H11">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F11 D22:F30 H6:H11">
-    <cfRule type="containsErrors" dxfId="10" priority="11">
+    <cfRule type="containsErrors" dxfId="19" priority="20">
       <formula>ISERROR(D6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:G18 I17:I18 D14:I15">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+  <conditionalFormatting sqref="D17:G17 I17:I18 D14:I15 D18:F18">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsErrors" dxfId="8" priority="10">
+    <cfRule type="containsErrors" dxfId="17" priority="19">
       <formula>ISERROR(D14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:G19 I19">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsErrors" dxfId="6" priority="8">
+    <cfRule type="containsErrors" dxfId="15" priority="17">
       <formula>ISERROR(D19)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsErrors" dxfId="4" priority="6">
+    <cfRule type="containsErrors" dxfId="13" priority="15">
       <formula>ISERROR(H17)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsErrors" dxfId="11" priority="13">
+      <formula>ISERROR(H19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G12">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G12">
+    <cfRule type="containsErrors" dxfId="9" priority="10">
+      <formula>ISERROR(G6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(P13))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(P10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(P9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(P11))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(P12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="containsErrors" dxfId="2" priority="4">
-      <formula>ISERROR(H19)</formula>
+      <formula>ISERROR(G18)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G12">
-    <cfRule type="containsErrors" dxfId="0" priority="1">
-      <formula>ISERROR(G6)</formula>
+    <cfRule type="containsErrors" dxfId="0" priority="2">
+      <formula>ISERROR(H18)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:I13" xr:uid="{CE6D3C89-BC47-4D00-AF38-18516D66117F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:I13" xr:uid="{2E4C742E-2F9A-47AC-83B6-398179FF83AC}">
       <formula1>$B$9:$B$43</formula1>
     </dataValidation>
   </dataValidations>
@@ -22616,48 +22952,48 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB13F0FF-D2CF-409F-BACF-A9808FA6E00B}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.109375" style="282"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="278"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="282" t="str">
+        <v>90</v>
+      </c>
+      <c r="B1" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!D13</f>
         <v>YTD</v>
       </c>
-      <c r="C1" s="282" t="str">
+      <c r="C1" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!E13</f>
         <v>1 Year</v>
       </c>
-      <c r="D1" s="282" t="str">
+      <c r="D1" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!F13</f>
         <v>3 Years</v>
       </c>
-      <c r="E1" s="282" t="str">
+      <c r="E1" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!G13</f>
         <v>5 Years</v>
       </c>
-      <c r="F1" s="282" t="str">
+      <c r="F1" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!H13</f>
         <v>10 Years</v>
       </c>
-      <c r="G1" s="282" t="str">
+      <c r="G1" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!I13</f>
         <v>Inception*</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -22665,29 +23001,29 @@
         <f>'Strategic Allocation-FACT SHEET'!C14</f>
         <v>Class A</v>
       </c>
-      <c r="B2" s="282">
+      <c r="B2" s="278">
         <f>'Strategic Allocation-FACT SHEET'!D14</f>
-        <v>-3.4193002853820951</v>
-      </c>
-      <c r="C2" s="282">
+        <v>7.3488372093023253</v>
+      </c>
+      <c r="C2" s="278">
         <f>'Strategic Allocation-FACT SHEET'!E14</f>
-        <v>-3.4193002853820951</v>
-      </c>
-      <c r="D2" s="282">
+        <v>34.766778869272514</v>
+      </c>
+      <c r="D2" s="278">
         <f>'Strategic Allocation-FACT SHEET'!F14</f>
-        <v>1.75</v>
-      </c>
-      <c r="E2" s="282">
+        <v>4.38</v>
+      </c>
+      <c r="E2" s="278">
         <f>'Strategic Allocation-FACT SHEET'!G14</f>
-        <v>4.9159041761788425</v>
-      </c>
-      <c r="F2" s="282">
+        <v>6.18</v>
+      </c>
+      <c r="F2" s="278">
         <f>'Strategic Allocation-FACT SHEET'!H14</f>
-        <v>4.4761282899100197</v>
-      </c>
-      <c r="G2" s="282">
+        <v>4.870944723753512</v>
+      </c>
+      <c r="G2" s="278">
         <f>'Strategic Allocation-FACT SHEET'!I14</f>
-        <v>5.42</v>
+        <v>5.94</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -22698,29 +23034,29 @@
         <f>'Strategic Allocation-FACT SHEET'!C15</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
-      <c r="B3" s="282">
+      <c r="B3" s="278">
         <f>'Strategic Allocation-FACT SHEET'!D15</f>
-        <v>18.395967492961638</v>
-      </c>
-      <c r="C3" s="282">
+        <v>6.174872895281168</v>
+      </c>
+      <c r="C3" s="278">
         <f>'Strategic Allocation-FACT SHEET'!E15</f>
-        <v>18.395967492961638</v>
-      </c>
-      <c r="D3" s="282">
+        <v>56.348393269738516</v>
+      </c>
+      <c r="D3" s="278">
         <f>'Strategic Allocation-FACT SHEET'!F15</f>
-        <v>14.18</v>
-      </c>
-      <c r="E3" s="282">
+        <v>16.78</v>
+      </c>
+      <c r="E3" s="278">
         <f>'Strategic Allocation-FACT SHEET'!G15</f>
-        <v>15.22</v>
-      </c>
-      <c r="F3" s="282">
+        <v>16.29</v>
+      </c>
+      <c r="F3" s="278">
         <f>'Strategic Allocation-FACT SHEET'!H15</f>
-        <v>13.88</v>
-      </c>
-      <c r="G3" s="282">
+        <v>13.91</v>
+      </c>
+      <c r="G3" s="278">
         <f>'Strategic Allocation-FACT SHEET'!I15</f>
-        <v>14.75</v>
+        <v>15.01</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -22728,31 +23064,31 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="282">
+        <v>92</v>
+      </c>
+      <c r="B4" s="278">
         <f>'Strategic Allocation-FACT SHEET'!D16</f>
-        <v>-8.01</v>
-      </c>
-      <c r="C4" s="282">
+        <v>2.23</v>
+      </c>
+      <c r="C4" s="278">
         <f>'Strategic Allocation-FACT SHEET'!E16</f>
-        <v>-8.01</v>
-      </c>
-      <c r="D4" s="282">
+        <v>28.31</v>
+      </c>
+      <c r="D4" s="278">
         <f>'Strategic Allocation-FACT SHEET'!F16</f>
-        <v>0.11</v>
-      </c>
-      <c r="E4" s="282">
+        <v>2.69</v>
+      </c>
+      <c r="E4" s="278">
         <f>'Strategic Allocation-FACT SHEET'!G16</f>
-        <v>3.9</v>
-      </c>
-      <c r="F4" s="282">
+        <v>5.15</v>
+      </c>
+      <c r="F4" s="278">
         <f>'Strategic Allocation-FACT SHEET'!H16</f>
-        <v>3.97</v>
-      </c>
-      <c r="G4" s="282">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G4" s="278">
         <f>'Strategic Allocation-FACT SHEET'!I16</f>
-        <v>4.97</v>
+        <v>5.5</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -22760,31 +23096,31 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="282">
+        <v>93</v>
+      </c>
+      <c r="B5" s="278">
         <f>'Strategic Allocation-FACT SHEET'!D17</f>
-        <v>-3.19</v>
-      </c>
-      <c r="C5" s="282">
+        <v>7.56</v>
+      </c>
+      <c r="C5" s="278">
         <f>'Strategic Allocation-FACT SHEET'!E17</f>
-        <v>-3.19</v>
-      </c>
-      <c r="D5" s="282">
+        <v>35.11</v>
+      </c>
+      <c r="D5" s="278">
         <f>'Strategic Allocation-FACT SHEET'!F17</f>
-        <v>1.96</v>
-      </c>
-      <c r="E5" s="282" t="str">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E5" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!G17</f>
         <v>n/a</v>
       </c>
-      <c r="F5" s="282" t="str">
+      <c r="F5" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!H17</f>
         <v>n/a</v>
       </c>
-      <c r="G5" s="282">
+      <c r="G5" s="278">
         <f>'Strategic Allocation-FACT SHEET'!I17</f>
-        <v>4.93</v>
+        <v>6.27</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -22795,29 +23131,29 @@
         <f>'Strategic Allocation-FACT SHEET'!C18</f>
         <v>Class C</v>
       </c>
-      <c r="B6" s="282">
+      <c r="B6" s="278">
         <f>'Strategic Allocation-FACT SHEET'!D18</f>
-        <v>-4.13</v>
-      </c>
-      <c r="C6" s="282">
+        <v>7.17</v>
+      </c>
+      <c r="C6" s="278">
         <f>'Strategic Allocation-FACT SHEET'!E18</f>
-        <v>-4.13</v>
-      </c>
-      <c r="D6" s="282">
+        <v>33.72</v>
+      </c>
+      <c r="D6" s="278">
         <f>'Strategic Allocation-FACT SHEET'!F18</f>
-        <v>0.96</v>
-      </c>
-      <c r="E6" s="282" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="E6" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!G18</f>
         <v>n/a</v>
       </c>
-      <c r="F6" s="282" t="str">
+      <c r="F6" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!H18</f>
         <v>n/a</v>
       </c>
-      <c r="G6" s="282">
+      <c r="G6" s="278">
         <f>'Strategic Allocation-FACT SHEET'!I18</f>
-        <v>3.91</v>
+        <v>5.2</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -22828,29 +23164,29 @@
         <f>'Strategic Allocation-FACT SHEET'!C19</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
-      <c r="B7" s="282">
+      <c r="B7" s="278">
         <f>'Strategic Allocation-FACT SHEET'!D19</f>
-        <v>18.395967492961638</v>
-      </c>
-      <c r="C7" s="282">
+        <v>6.174872895281168</v>
+      </c>
+      <c r="C7" s="278">
         <f>'Strategic Allocation-FACT SHEET'!E19</f>
-        <v>18.395967492961638</v>
-      </c>
-      <c r="D7" s="282">
+        <v>56.348393269738516</v>
+      </c>
+      <c r="D7" s="278">
         <f>'Strategic Allocation-FACT SHEET'!F19</f>
-        <v>14.18</v>
-      </c>
-      <c r="E7" s="282" t="str">
+        <v>16.78</v>
+      </c>
+      <c r="E7" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!G19</f>
         <v>n/a</v>
       </c>
-      <c r="F7" s="282" t="str">
+      <c r="F7" s="278" t="str">
         <f>'Strategic Allocation-FACT SHEET'!H19</f>
         <v>n/a</v>
       </c>
-      <c r="G7" s="282">
+      <c r="G7" s="278">
         <f>'Strategic Allocation-FACT SHEET'!I19</f>
-        <v>14.75</v>
+        <v>16.38</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -22865,43 +23201,43 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9870CF44-2870-4887-8F4A-54026B724E65}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="281">
+        <v>95</v>
+      </c>
+      <c r="B2" s="277">
         <f>'Strategic Allocation-FACT SHEET'!D22*100</f>
-        <v>-1.96</v>
-      </c>
-      <c r="C2" s="281">
+        <v>5.45</v>
+      </c>
+      <c r="C2" s="277">
         <f>'Strategic Allocation-FACT SHEET'!E22*100</f>
-        <v>22.82</v>
+        <v>30.39</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -22909,13 +23245,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
+        <v>96</v>
+      </c>
+      <c r="B3" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D23*100</f>
+        <v>5.94</v>
+      </c>
+      <c r="C3" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!E23*100</f>
+        <v>15.010000000000002</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -22926,11 +23264,13 @@
         <f>'Strategic Allocation-FACT SHEET'!C24</f>
         <v>Standard Deviation</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
+      <c r="B4" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D24*100</f>
+        <v>10.026099044639643</v>
+      </c>
+      <c r="C4" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!E24*100</f>
+        <v>13.98632375253921</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -22941,11 +23281,13 @@
         <f>'Strategic Allocation-FACT SHEET'!C25</f>
         <v>Sharpe Ratio</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
+      <c r="B5" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D25</f>
+        <v>0.58938388676247178</v>
+      </c>
+      <c r="C5" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!E25</f>
+        <v>1.0705989644773175</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -22953,12 +23295,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D26*100</f>
+        <v>-2.8546321062069113</v>
+      </c>
+      <c r="C6" s="277" t="s">
         <v>69</v>
       </c>
       <c r="D6">
@@ -22967,12 +23310,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D27</f>
+        <v>0.58577102315961349</v>
+      </c>
+      <c r="C7" s="277" t="s">
         <v>69</v>
       </c>
       <c r="D7">
@@ -22981,12 +23325,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D28</f>
+        <v>0.82302439105941216</v>
+      </c>
+      <c r="C8" s="277" t="s">
         <v>69</v>
       </c>
       <c r="D8">
@@ -22998,11 +23343,13 @@
         <f>'Strategic Allocation-FACT SHEET'!C29</f>
         <v>% Positive Months</v>
       </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
+      <c r="B9" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D29*100</f>
+        <v>67.127390002303628</v>
+      </c>
+      <c r="C9" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!E29*100</f>
+        <v>70.697995853489985</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -23013,11 +23360,13 @@
         <f>'Strategic Allocation-FACT SHEET'!C30</f>
         <v>Maximum Drawdown</v>
       </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
+      <c r="B10" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!D30*100</f>
+        <v>-23.14961461302925</v>
+      </c>
+      <c r="C10" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!E30*100</f>
+        <v>-19.598298792929665</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -23031,50 +23380,48 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50159BAB-7DB4-41EF-B8FA-30470C43DBB0}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="281"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="277"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="281" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="277" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="277" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="281" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M6</f>
-        <v>Catalyst Enhanced Income Strategy Fund Class I</v>
-      </c>
-      <c r="B2" s="281">
+        <v>Rational Special Situations Income Fund Institutional Class</v>
+      </c>
+      <c r="B2" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N6*100</f>
-        <v>17.494973633217008</v>
-      </c>
-      <c r="C2" s="281">
+        <v>18.258118654183598</v>
+      </c>
+      <c r="C2" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O6*100</f>
-        <v>17.494973633217008</v>
+        <v>18.258118654183598</v>
       </c>
       <c r="D2" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P6</f>
@@ -23087,15 +23434,15 @@
     <row r="3" spans="1:5">
       <c r="A3" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M7</f>
-        <v>Rational Special Situations Income Fund Institutional Class</v>
-      </c>
-      <c r="B3" s="281">
+        <v>Catalyst Enhanced Income Strategy Fund Class I</v>
+      </c>
+      <c r="B3" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N7*100</f>
-        <v>17.399036380414877</v>
-      </c>
-      <c r="C3" s="281">
+        <v>18.098537906281315</v>
+      </c>
+      <c r="C3" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O7*100</f>
-        <v>17.399036380414877</v>
+        <v>18.098537906281315</v>
       </c>
       <c r="D3" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P7</f>
@@ -23110,13 +23457,13 @@
         <f>'Strategic Allocation-FACT SHEET'!M8</f>
         <v>Rational/Pier 88 Convertible Securities Fund Institutional Class</v>
       </c>
-      <c r="B4" s="281">
+      <c r="B4" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N8*100</f>
-        <v>16.331538602712051</v>
-      </c>
-      <c r="C4" s="281">
+        <v>16.191498496633457</v>
+      </c>
+      <c r="C4" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O8*100</f>
-        <v>16.331538602712051</v>
+        <v>16.191498496633457</v>
       </c>
       <c r="D4" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P8</f>
@@ -23129,19 +23476,19 @@
     <row r="5" spans="1:5">
       <c r="A5" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M9</f>
-        <v>Cash &amp; Equivalents</v>
-      </c>
-      <c r="B5" s="281">
+        <v>Catalyst/CIFC Floating Rate Income Fund Class I</v>
+      </c>
+      <c r="B5" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N9*100</f>
-        <v>15.874100921543507</v>
-      </c>
-      <c r="C5" s="281">
+        <v>10.477829362963178</v>
+      </c>
+      <c r="C5" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O9*100</f>
-        <v>15.874100921543507</v>
+        <v>10.477829362963178</v>
       </c>
       <c r="D5" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P9</f>
-        <v>Cash Equivalents</v>
+        <v>Senior Secured Notes</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -23150,19 +23497,19 @@
     <row r="6" spans="1:5">
       <c r="A6" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M10</f>
-        <v>Catalyst/CIFC Floating Rate Income Fund Class I</v>
-      </c>
-      <c r="B6" s="281">
+        <v>Catalyst Insider Income Fund Class I</v>
+      </c>
+      <c r="B6" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N10*100</f>
-        <v>9.811160652401572</v>
-      </c>
-      <c r="C6" s="281">
+        <v>10.20806954618546</v>
+      </c>
+      <c r="C6" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O10*100</f>
-        <v>9.811160652401572</v>
+        <v>10.20806954618546</v>
       </c>
       <c r="D6" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P10</f>
-        <v>Senior Secured Notes</v>
+        <v>Corporate Bonds</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -23171,19 +23518,19 @@
     <row r="7" spans="1:5">
       <c r="A7" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M11</f>
-        <v>Catalyst Insider Income Fund Class I</v>
-      </c>
-      <c r="B7" s="281">
+        <v>Catalyst/Stone Beach Income Opportunity Fund Class I</v>
+      </c>
+      <c r="B7" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N11*100</f>
-        <v>9.5811631986570802</v>
-      </c>
-      <c r="C7" s="281">
+        <v>8.6477649040602387</v>
+      </c>
+      <c r="C7" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O11*100</f>
-        <v>9.5811631986570802</v>
+        <v>8.6477649040602387</v>
       </c>
       <c r="D7" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P11</f>
-        <v>Corporate Bonds</v>
+        <v>Agency MBS</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -23192,19 +23539,19 @@
     <row r="8" spans="1:5">
       <c r="A8" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M12</f>
-        <v>Catalyst/Stone Beach Income Opportunity Fund Class I</v>
-      </c>
-      <c r="B8" s="281">
+        <v>AlphaCentric Income Opportunities Fund Class I</v>
+      </c>
+      <c r="B8" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N12*100</f>
-        <v>8.0758539727613616</v>
-      </c>
-      <c r="C8" s="281">
+        <v>5.5253028273609148</v>
+      </c>
+      <c r="C8" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O12*100</f>
-        <v>8.0758539727613616</v>
+        <v>5.5253028273609148</v>
       </c>
       <c r="D8" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P12</f>
-        <v>Agency MBS</v>
+        <v>Target Distribution</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -23213,19 +23560,19 @@
     <row r="9" spans="1:5">
       <c r="A9" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M13</f>
-        <v>AlphaCentric Income Opportunities Fund Class I</v>
-      </c>
-      <c r="B9" s="281">
+        <v>Cash and Equivalents</v>
+      </c>
+      <c r="B9" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N13*100</f>
-        <v>5.4321726382925366</v>
-      </c>
-      <c r="C9" s="281">
+        <v>7.7635306989730477</v>
+      </c>
+      <c r="C9" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O13*100</f>
-        <v>5.4321726382925366</v>
+        <v>7.7635306989730477</v>
       </c>
       <c r="D9" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P13</f>
-        <v>Target Distribution</v>
+        <v>Cash Equivalents</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -23234,22 +23581,43 @@
     <row r="10" spans="1:5">
       <c r="A10" t="str">
         <f>'Strategic Allocation-FACT SHEET'!M14</f>
-        <v>S&amp;P 500 Futures Contracts</v>
-      </c>
-      <c r="B10" s="281">
+        <v>United States Treasury Bill 0% Due 12/30/2021</v>
+      </c>
+      <c r="B10" s="277">
         <f>'Strategic Allocation-FACT SHEET'!N14*100</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="281">
+        <v>4.829347603358797</v>
+      </c>
+      <c r="C10" s="277">
         <f>'Strategic Allocation-FACT SHEET'!O14*100</f>
-        <v>98.59</v>
+        <v>4.829347603358797</v>
       </c>
       <c r="D10" t="str">
         <f>'Strategic Allocation-FACT SHEET'!P14</f>
-        <v>Futures Contracts</v>
+        <v>Government Bond</v>
       </c>
       <c r="E10">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="str">
+        <f>'Strategic Allocation-FACT SHEET'!M15</f>
+        <v>S&amp;P 500 Futures Contracts</v>
+      </c>
+      <c r="B11" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!N15*100</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="277">
+        <f>'Strategic Allocation-FACT SHEET'!O15*100</f>
+        <v>100.62982007533738</v>
+      </c>
+      <c r="D11" t="str">
+        <f>'Strategic Allocation-FACT SHEET'!P15</f>
+        <v>Futures Contracts</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
